--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2365810.290878421</v>
+        <v>2365091.342321505</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233882.1656667645</v>
+        <v>233882.1656667647</v>
       </c>
     </row>
     <row r="9">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.981353179542184</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
     </row>
     <row r="4">
@@ -819,73 +819,73 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="D4" t="n">
+      <c r="U4" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10.19681332827224</v>
+      </c>
+      <c r="X4" t="n">
         <v>8.981353179542182</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>2.394852594011208</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.975561986141166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="E6" t="n">
-        <v>8.981353179542182</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>10.19681332827224</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1062,49 +1062,49 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.981353179542182</v>
+      </c>
+      <c r="G7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.981353179542182</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="S7" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.3548090048364</v>
+        <v>10.35480900483641</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1153,55 +1153,55 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>16.8201079258493</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>16.8201079258493</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>14.81515106108805</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>14.81515106108805</v>
       </c>
-      <c r="C10" t="n">
+      <c r="G10" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="D10" t="n">
+      <c r="H10" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.9853854029126</v>
+        <v>67.98538540291193</v>
       </c>
       <c r="T11" t="n">
         <v>163.3203010072094</v>
       </c>
       <c r="U11" t="n">
-        <v>199.9917368270075</v>
+        <v>199.9917368270087</v>
       </c>
       <c r="V11" t="n">
         <v>291.8813496459377</v>
@@ -1438,7 +1438,7 @@
         <v>342.1791343817906</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.4694768504444</v>
+        <v>342.4694768504435</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>108.5269851595683</v>
       </c>
       <c r="G13" t="n">
-        <v>110.8939776991452</v>
+        <v>110.8939776991451</v>
       </c>
       <c r="H13" t="n">
         <v>91.64349450109836</v>
       </c>
       <c r="I13" t="n">
-        <v>53.92591397580156</v>
+        <v>53.92591397580188</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.79678304816226</v>
+        <v>19.79678304816181</v>
       </c>
       <c r="S13" t="n">
         <v>126.130063260938</v>
@@ -1624,7 +1624,7 @@
         <v>349.6791652310254</v>
       </c>
       <c r="H14" t="n">
-        <v>248.1799257027751</v>
+        <v>248.1799257027744</v>
       </c>
       <c r="I14" t="n">
         <v>11.59970252175022</v>
@@ -1663,7 +1663,7 @@
         <v>163.3203010072094</v>
       </c>
       <c r="U14" t="n">
-        <v>199.9917368270088</v>
+        <v>199.9917368270087</v>
       </c>
       <c r="V14" t="n">
         <v>291.8813496459377</v>
@@ -1785,7 +1785,7 @@
         <v>91.64349450109836</v>
       </c>
       <c r="I16" t="n">
-        <v>53.92591397580124</v>
+        <v>53.92591397580156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.79678304816226</v>
+        <v>19.79678304816267</v>
       </c>
       <c r="S16" t="n">
         <v>126.130063260938</v>
@@ -1864,7 +1864,7 @@
         <v>248.1799257027751</v>
       </c>
       <c r="I17" t="n">
-        <v>11.5997025217504</v>
+        <v>11.59970252174951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>248.1799257027751</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5997025217504</v>
+        <v>11.59970252175022</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>163.3203010072094</v>
       </c>
       <c r="U20" t="n">
-        <v>199.9917368270087</v>
+        <v>199.9917368270079</v>
       </c>
       <c r="V20" t="n">
         <v>291.8813496459377</v>
@@ -2320,7 +2320,7 @@
         <v>351.6611383968981</v>
       </c>
       <c r="C23" t="n">
-        <v>351.5655153089161</v>
+        <v>351.5655153089155</v>
       </c>
       <c r="D23" t="n">
         <v>345.9614611369236</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.9853854029126</v>
+        <v>67.98538540291193</v>
       </c>
       <c r="T23" t="n">
         <v>163.3203010072094</v>
       </c>
       <c r="U23" t="n">
-        <v>199.9917368270084</v>
+        <v>199.9917368270087</v>
       </c>
       <c r="V23" t="n">
         <v>291.8813496459377</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.79678304816267</v>
+        <v>19.79678304816136</v>
       </c>
       <c r="S25" t="n">
         <v>126.130063260938</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>122.4432148738583</v>
+        <v>122.4432148738587</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7781304781551</v>
+        <v>217.7781304781558</v>
       </c>
       <c r="U26" t="n">
         <v>254.4495662979558</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.74261894726864</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.92981754403634</v>
+        <v>180.5878927318844</v>
       </c>
       <c r="T28" t="n">
         <v>236.1872734785046</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>122.4432148738583</v>
+        <v>122.4432148738578</v>
       </c>
       <c r="T29" t="n">
         <v>217.7781304781558</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>71.78456825912156</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.3518071700915</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.1013239720448</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.53843389285821</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>404.4053890895595</v>
+        <v>404.4053890895594</v>
       </c>
       <c r="C32" t="n">
-        <v>404.3097660015775</v>
+        <v>404.3097660015774</v>
       </c>
       <c r="D32" t="n">
-        <v>398.705711829585</v>
+        <v>398.7057118295849</v>
       </c>
       <c r="E32" t="n">
-        <v>408.4832345499872</v>
+        <v>408.4832345499871</v>
       </c>
       <c r="F32" t="n">
         <v>415.1065291475642</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4234159236868</v>
+        <v>402.4234159236867</v>
       </c>
       <c r="H32" t="n">
-        <v>300.9241763954364</v>
+        <v>300.9241763954363</v>
       </c>
       <c r="I32" t="n">
-        <v>64.34395321441158</v>
+        <v>64.34395321441151</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>120.7296360955733</v>
+        <v>120.729636095573</v>
       </c>
       <c r="T32" t="n">
         <v>216.0645516998707</v>
       </c>
       <c r="U32" t="n">
-        <v>252.735987519671</v>
+        <v>252.7359875196719</v>
       </c>
       <c r="V32" t="n">
         <v>344.625600338599</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>184.1091305518189</v>
       </c>
       <c r="C34" t="n">
-        <v>167.6688599356156</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>161.2712358522296</v>
       </c>
       <c r="G34" t="n">
-        <v>67.80096809301253</v>
+        <v>163.6382283918064</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>95.25448367579915</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.8743139535993</v>
       </c>
       <c r="T34" t="n">
-        <v>234.4736947002196</v>
+        <v>234.4736947002195</v>
       </c>
       <c r="U34" t="n">
-        <v>278.2442555650363</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>269.4333088315882</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>274.5653890679293</v>
+        <v>274.5653890679292</v>
       </c>
       <c r="X34" t="n">
-        <v>234.2468447406284</v>
+        <v>234.2468447406283</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.7747628468379</v>
+        <v>220.7747628468378</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.661138396898</v>
+        <v>351.6611383968983</v>
       </c>
       <c r="C35" t="n">
-        <v>351.565515308916</v>
+        <v>351.5655153089162</v>
       </c>
       <c r="D35" t="n">
-        <v>345.9614611369234</v>
+        <v>345.9614611369237</v>
       </c>
       <c r="E35" t="n">
-        <v>355.7389838573256</v>
+        <v>355.7389838573259</v>
       </c>
       <c r="F35" t="n">
-        <v>362.3622784549027</v>
+        <v>362.362278454903</v>
       </c>
       <c r="G35" t="n">
-        <v>349.6791652310253</v>
+        <v>349.6791652310255</v>
       </c>
       <c r="H35" t="n">
-        <v>248.1799257027749</v>
+        <v>248.1799257027752</v>
       </c>
       <c r="I35" t="n">
-        <v>11.59970252175001</v>
+        <v>11.59970252175032</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.9853854029117</v>
+        <v>67.9853854029126</v>
       </c>
       <c r="T35" t="n">
-        <v>163.3203010072091</v>
+        <v>163.3203010072095</v>
       </c>
       <c r="U35" t="n">
-        <v>199.9917368270097</v>
+        <v>199.9917368270088</v>
       </c>
       <c r="V35" t="n">
-        <v>291.8813496459375</v>
+        <v>291.8813496459378</v>
       </c>
       <c r="W35" t="n">
-        <v>325.4648683852365</v>
+        <v>325.4648683852368</v>
       </c>
       <c r="X35" t="n">
-        <v>342.1791343817904</v>
+        <v>342.1791343817907</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.4694768504442</v>
+        <v>342.4694768504445</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.3648798591573</v>
+        <v>131.3648798591576</v>
       </c>
       <c r="C37" t="n">
-        <v>114.924609242954</v>
+        <v>114.9246092429543</v>
       </c>
       <c r="D37" t="n">
-        <v>103.4418687593725</v>
+        <v>103.4418687593728</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8438775094171</v>
+        <v>104.8438775094174</v>
       </c>
       <c r="F37" t="n">
-        <v>108.526985159568</v>
+        <v>108.5269851595683</v>
       </c>
       <c r="G37" t="n">
-        <v>110.8939776991449</v>
+        <v>110.8939776991452</v>
       </c>
       <c r="H37" t="n">
-        <v>91.64349450109813</v>
+        <v>91.64349450109844</v>
       </c>
       <c r="I37" t="n">
-        <v>53.92591397580134</v>
+        <v>53.92591397580166</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.79678304816245</v>
+        <v>19.79678304816277</v>
       </c>
       <c r="S37" t="n">
-        <v>126.1300632609377</v>
+        <v>126.130063260938</v>
       </c>
       <c r="T37" t="n">
-        <v>181.729444007558</v>
+        <v>181.7294440075583</v>
       </c>
       <c r="U37" t="n">
-        <v>225.5000048723748</v>
+        <v>225.5000048723751</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6890581389266</v>
+        <v>216.689058138927</v>
       </c>
       <c r="W37" t="n">
-        <v>221.8211383752677</v>
+        <v>221.821138375268</v>
       </c>
       <c r="X37" t="n">
-        <v>181.5025940479668</v>
+        <v>181.5025940479671</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.0305121541763</v>
+        <v>168.0305121541766</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.6611383968981</v>
+        <v>351.6611383968982</v>
       </c>
       <c r="C38" t="n">
         <v>351.5655153089161</v>
@@ -3523,7 +3523,7 @@
         <v>248.1799257027751</v>
       </c>
       <c r="I38" t="n">
-        <v>11.5997025217502</v>
+        <v>11.59970252175023</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.9853854029119</v>
+        <v>67.98538540291193</v>
       </c>
       <c r="T38" t="n">
-        <v>163.3203010072093</v>
+        <v>163.3203010072094</v>
       </c>
       <c r="U38" t="n">
-        <v>199.9917368270084</v>
+        <v>199.9917368270102</v>
       </c>
       <c r="V38" t="n">
         <v>291.8813496459377</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.3648798591575</v>
+        <v>131.3648798591576</v>
       </c>
       <c r="C40" t="n">
-        <v>114.9246092429542</v>
+        <v>114.9246092429543</v>
       </c>
       <c r="D40" t="n">
         <v>103.4418687593727</v>
@@ -3672,16 +3672,16 @@
         <v>104.8438775094173</v>
       </c>
       <c r="F40" t="n">
-        <v>108.5269851595682</v>
+        <v>108.5269851595683</v>
       </c>
       <c r="G40" t="n">
         <v>110.8939776991451</v>
       </c>
       <c r="H40" t="n">
-        <v>91.64349450109833</v>
+        <v>91.64349450109836</v>
       </c>
       <c r="I40" t="n">
-        <v>53.92591397580154</v>
+        <v>53.92591397580156</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.79678304816265</v>
+        <v>19.79678304816267</v>
       </c>
       <c r="S40" t="n">
-        <v>126.1300632609379</v>
+        <v>126.130063260938</v>
       </c>
       <c r="T40" t="n">
         <v>181.7294440075582</v>
@@ -3720,13 +3720,13 @@
         <v>225.500004872375</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6890581389268</v>
+        <v>216.6890581389269</v>
       </c>
       <c r="W40" t="n">
-        <v>221.8211383752679</v>
+        <v>221.821138375268</v>
       </c>
       <c r="X40" t="n">
-        <v>181.502594047967</v>
+        <v>181.5025940479671</v>
       </c>
       <c r="Y40" t="n">
         <v>168.0305121541765</v>
@@ -3760,7 +3760,7 @@
         <v>248.1799257027751</v>
       </c>
       <c r="I41" t="n">
-        <v>11.59970252174954</v>
+        <v>11.59970252175022</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.9853854029119</v>
+        <v>67.98538540291351</v>
       </c>
       <c r="T41" t="n">
-        <v>163.3203010072093</v>
+        <v>163.3203010072094</v>
       </c>
       <c r="U41" t="n">
-        <v>199.9917368270086</v>
+        <v>199.9917368270087</v>
       </c>
       <c r="V41" t="n">
         <v>291.8813496459377</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.3648798591575</v>
+        <v>131.3648798591576</v>
       </c>
       <c r="C43" t="n">
-        <v>114.9246092429542</v>
+        <v>114.9246092429543</v>
       </c>
       <c r="D43" t="n">
         <v>103.4418687593727</v>
@@ -3909,16 +3909,16 @@
         <v>104.8438775094173</v>
       </c>
       <c r="F43" t="n">
-        <v>108.5269851595682</v>
+        <v>108.5269851595683</v>
       </c>
       <c r="G43" t="n">
         <v>110.8939776991451</v>
       </c>
       <c r="H43" t="n">
-        <v>91.64349450109833</v>
+        <v>91.64349450109836</v>
       </c>
       <c r="I43" t="n">
-        <v>53.92591397580149</v>
+        <v>53.92591397580156</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.79678304816264</v>
+        <v>19.79678304816266</v>
       </c>
       <c r="S43" t="n">
-        <v>126.1300632609379</v>
+        <v>126.130063260938</v>
       </c>
       <c r="T43" t="n">
         <v>181.7294440075582</v>
       </c>
       <c r="U43" t="n">
-        <v>225.500004872375</v>
+        <v>225.5000048723749</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6890581389268</v>
+        <v>216.6890581389269</v>
       </c>
       <c r="W43" t="n">
-        <v>221.8211383752679</v>
+        <v>221.821138375268</v>
       </c>
       <c r="X43" t="n">
-        <v>181.502594047967</v>
+        <v>181.5025940479671</v>
       </c>
       <c r="Y43" t="n">
         <v>168.0305121541765</v>
@@ -3997,7 +3997,7 @@
         <v>248.1799257027751</v>
       </c>
       <c r="I44" t="n">
-        <v>11.59970252174954</v>
+        <v>11.59970252175022</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.9853854029119</v>
+        <v>67.98538540291193</v>
       </c>
       <c r="T44" t="n">
-        <v>163.3203010072093</v>
+        <v>163.3203010072094</v>
       </c>
       <c r="U44" t="n">
-        <v>199.9917368270086</v>
+        <v>199.9917368270087</v>
       </c>
       <c r="V44" t="n">
         <v>291.8813496459377</v>
@@ -4045,7 +4045,7 @@
         <v>342.1791343817906</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.4694768504444</v>
+        <v>342.4694768504461</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.3648798591575</v>
+        <v>131.3648798591576</v>
       </c>
       <c r="C46" t="n">
-        <v>114.9246092429542</v>
+        <v>114.9246092429543</v>
       </c>
       <c r="D46" t="n">
         <v>103.4418687593727</v>
@@ -4146,16 +4146,16 @@
         <v>104.8438775094173</v>
       </c>
       <c r="F46" t="n">
-        <v>108.5269851595682</v>
+        <v>108.5269851595683</v>
       </c>
       <c r="G46" t="n">
         <v>110.8939776991451</v>
       </c>
       <c r="H46" t="n">
-        <v>91.64349450109833</v>
+        <v>91.64349450109836</v>
       </c>
       <c r="I46" t="n">
-        <v>53.92591397580154</v>
+        <v>53.92591397580156</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.79678304816264</v>
+        <v>19.79678304816181</v>
       </c>
       <c r="S46" t="n">
-        <v>126.1300632609379</v>
+        <v>126.130063260938</v>
       </c>
       <c r="T46" t="n">
         <v>181.7294440075582</v>
       </c>
       <c r="U46" t="n">
-        <v>225.5000048723751</v>
+        <v>225.500004872375</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6890581389268</v>
+        <v>216.6890581389269</v>
       </c>
       <c r="W46" t="n">
-        <v>221.8211383752679</v>
+        <v>221.821138375268</v>
       </c>
       <c r="X46" t="n">
-        <v>181.502594047967</v>
+        <v>181.5025940479671</v>
       </c>
       <c r="Y46" t="n">
         <v>168.0305121541765</v>
@@ -4339,19 +4339,19 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="M2" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="N2" t="n">
-        <v>21.00543545624082</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="O2" t="n">
-        <v>31.10028065123034</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="P2" t="n">
-        <v>40.78725331308897</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.78725331308897</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="R2" t="n">
         <v>40.78725331308897</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.41536795166025</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="C3" t="n">
         <v>11.11555650896102</v>
@@ -4418,16 +4418,16 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="M3" t="n">
-        <v>10.50271772812041</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="N3" t="n">
-        <v>20.59756292310993</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="O3" t="n">
-        <v>20.59756292310993</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="P3" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="Q3" t="n">
         <v>30.69240811809945</v>
@@ -4436,25 +4436,25 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V3" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="W3" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="X3" t="n">
-        <v>30.48744187038973</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.48744187038973</v>
+        <v>11.11555650896102</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.48744187038973</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="C4" t="n">
-        <v>20.18763042769049</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="D4" t="n">
-        <v>9.887818984991258</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="E4" t="n">
-        <v>9.887818984991258</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="F4" t="n">
-        <v>9.887818984991258</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="G4" t="n">
         <v>0.8157450662617793</v>
@@ -4488,13 +4488,13 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J4" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="K4" t="n">
-        <v>21.00543545624082</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="L4" t="n">
-        <v>31.10028065123034</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="M4" t="n">
         <v>40.78725331308897</v>
@@ -4518,22 +4518,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="T4" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="U4" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="V4" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="W4" t="n">
-        <v>40.78725331308897</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="X4" t="n">
-        <v>40.78725331308897</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.48744187038973</v>
+        <v>0.8157450662617793</v>
       </c>
     </row>
     <row r="5">
@@ -4549,46 +4549,46 @@
         <v>28.52229104267774</v>
       </c>
       <c r="D5" t="n">
-        <v>26.103248018424</v>
+        <v>28.09876517614235</v>
       </c>
       <c r="E5" t="n">
-        <v>15.80343657572476</v>
+        <v>17.79895373344311</v>
       </c>
       <c r="F5" t="n">
-        <v>5.503625133025528</v>
+        <v>7.499142290743878</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8157450662617793</v>
+        <v>2.811262223980129</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8157450662617793</v>
+        <v>2.811262223980129</v>
       </c>
       <c r="I5" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="N5" t="n">
-        <v>10.50271772812041</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="O5" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="P5" t="n">
         <v>30.69240811809945</v>
       </c>
       <c r="Q5" t="n">
-        <v>40.78725331308897</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="R5" t="n">
         <v>40.78725331308897</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="C6" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="D6" t="n">
-        <v>9.887818984991258</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="I6" t="n">
         <v>0.8157450662617793</v>
@@ -4673,25 +4673,25 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="T6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="U6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="V6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="W6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="X6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="C7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="D7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="E7" t="n">
-        <v>30.48744187038973</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="F7" t="n">
-        <v>20.18763042769049</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="G7" t="n">
-        <v>20.18763042769049</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="H7" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="I7" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="K7" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="L7" t="n">
-        <v>21.00543545624082</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="M7" t="n">
-        <v>31.10028065123034</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="N7" t="n">
-        <v>31.10028065123034</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="O7" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="P7" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q7" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="R7" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="S7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="T7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="U7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="V7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="W7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="X7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.78725331308897</v>
+        <v>20.18763042769049</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.82102866820891</v>
+        <v>39.83102066230052</v>
       </c>
       <c r="C8" t="n">
-        <v>50.7368420218831</v>
+        <v>33.74683401597471</v>
       </c>
       <c r="D8" t="n">
-        <v>50.31331615534771</v>
+        <v>33.32330814943931</v>
       </c>
       <c r="E8" t="n">
-        <v>40.01350471264847</v>
+        <v>23.02349670674008</v>
       </c>
       <c r="F8" t="n">
-        <v>23.02349670674008</v>
+        <v>6.033488700831693</v>
       </c>
       <c r="G8" t="n">
-        <v>18.33561663997633</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="H8" t="n">
-        <v>18.33561663997633</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="I8" t="n">
         <v>1.345608634067944</v>
@@ -4807,25 +4807,25 @@
         <v>1.345608634067944</v>
       </c>
       <c r="K8" t="n">
-        <v>1.345608634067944</v>
+        <v>17.32471116362478</v>
       </c>
       <c r="L8" t="n">
-        <v>17.32471116362478</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="M8" t="n">
         <v>33.97661801021559</v>
       </c>
       <c r="N8" t="n">
-        <v>50.62852485680639</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="O8" t="n">
         <v>50.62852485680639</v>
       </c>
       <c r="P8" t="n">
-        <v>50.62852485680639</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.62852485680639</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="R8" t="n">
         <v>67.2804317033972</v>
@@ -4849,7 +4849,7 @@
         <v>67.2804317033972</v>
       </c>
       <c r="Y8" t="n">
-        <v>67.2804317033972</v>
+        <v>50.29042369748881</v>
       </c>
     </row>
     <row r="9">
@@ -4865,16 +4865,16 @@
         <v>52.3156326517931</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3156326517931</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="E9" t="n">
-        <v>52.3156326517931</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="F9" t="n">
-        <v>52.3156326517931</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="G9" t="n">
-        <v>35.32562464588472</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="H9" t="n">
         <v>18.33561663997633</v>
@@ -4883,13 +4883,13 @@
         <v>1.345608634067944</v>
       </c>
       <c r="J9" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="K9" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="L9" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="M9" t="n">
         <v>17.99751548065875</v>
@@ -4898,28 +4898,28 @@
         <v>34.64942232724955</v>
       </c>
       <c r="O9" t="n">
-        <v>51.30132917384036</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="P9" t="n">
-        <v>67.2804317033972</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.2804317033972</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="R9" t="n">
         <v>67.2804317033972</v>
       </c>
       <c r="S9" t="n">
-        <v>52.3156326517931</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="T9" t="n">
-        <v>52.3156326517931</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="U9" t="n">
-        <v>52.3156326517931</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="V9" t="n">
-        <v>52.3156326517931</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="W9" t="n">
         <v>52.3156326517931</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="F10" t="n">
+        <v>52.3156326517931</v>
+      </c>
+      <c r="G10" t="n">
         <v>35.32562464588472</v>
       </c>
-      <c r="C10" t="n">
+      <c r="H10" t="n">
         <v>18.33561663997633</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.345608634067944</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.345608634067944</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.345608634067944</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.345608634067944</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.345608634067944</v>
       </c>
       <c r="I10" t="n">
         <v>1.345608634067944</v>
       </c>
       <c r="J10" t="n">
-        <v>1.345608634067944</v>
+        <v>15.42815803927846</v>
       </c>
       <c r="K10" t="n">
-        <v>1.345608634067944</v>
+        <v>32.08006488586927</v>
       </c>
       <c r="L10" t="n">
-        <v>17.32471116362478</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="M10" t="n">
-        <v>33.97661801021559</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="N10" t="n">
         <v>50.62852485680639</v>
@@ -4980,34 +4980,34 @@
         <v>50.62852485680639</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62852485680639</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="Q10" t="n">
         <v>67.2804317033972</v>
       </c>
       <c r="R10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="S10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="T10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="U10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="V10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="W10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="X10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1066.363078679103</v>
       </c>
       <c r="F11" t="n">
-        <v>700.3405751893019</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G11" t="n">
-        <v>347.1292971781652</v>
+        <v>347.1292971781653</v>
       </c>
       <c r="H11" t="n">
         <v>96.44250353899849</v>
@@ -5041,22 +5041,22 @@
         <v>84.72563230490736</v>
       </c>
       <c r="J11" t="n">
-        <v>225.5533650983569</v>
+        <v>381.2602616232856</v>
       </c>
       <c r="K11" t="n">
-        <v>827.1832759388069</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L11" t="n">
-        <v>1618.515331460405</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="M11" t="n">
-        <v>1618.515331460405</v>
+        <v>2638.154970153846</v>
       </c>
       <c r="N11" t="n">
-        <v>2460.728187839596</v>
+        <v>3480.367826533037</v>
       </c>
       <c r="O11" t="n">
-        <v>3188.429285877983</v>
+        <v>3789.337989987117</v>
       </c>
       <c r="P11" t="n">
         <v>3789.337989987117</v>
@@ -5068,19 +5068,19 @@
         <v>4236.281615245368</v>
       </c>
       <c r="S11" t="n">
-        <v>4167.609508777779</v>
+        <v>4167.60950877778</v>
       </c>
       <c r="T11" t="n">
         <v>4002.639507760397</v>
       </c>
       <c r="U11" t="n">
-        <v>3800.627652379581</v>
+        <v>3800.62765237958</v>
       </c>
       <c r="V11" t="n">
-        <v>3505.798006272573</v>
+        <v>3505.798006272572</v>
       </c>
       <c r="W11" t="n">
-        <v>3177.045613964253</v>
+        <v>3177.045613964252</v>
       </c>
       <c r="X11" t="n">
         <v>2831.410124689717</v>
@@ -5123,22 +5123,22 @@
         <v>302.7613581625967</v>
       </c>
       <c r="K12" t="n">
-        <v>701.1085903190791</v>
+        <v>801.6775137835001</v>
       </c>
       <c r="L12" t="n">
-        <v>1420.163342013993</v>
+        <v>804.0907149863853</v>
       </c>
       <c r="M12" t="n">
-        <v>1430.818965604181</v>
+        <v>898.4504519238438</v>
       </c>
       <c r="N12" t="n">
-        <v>1447.592113034881</v>
+        <v>915.2235993545439</v>
       </c>
       <c r="O12" t="n">
-        <v>1453.937248978166</v>
+        <v>1682.699790053723</v>
       </c>
       <c r="P12" t="n">
-        <v>2066.622819282496</v>
+        <v>1682.699790053723</v>
       </c>
       <c r="Q12" t="n">
         <v>2066.622819282496</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.8778816456726</v>
+        <v>779.8778816456727</v>
       </c>
       <c r="C13" t="n">
-        <v>663.7924177639006</v>
+        <v>663.7924177639007</v>
       </c>
       <c r="D13" t="n">
-        <v>559.3056816433221</v>
+        <v>559.3056816433223</v>
       </c>
       <c r="E13" t="n">
-        <v>453.4027750681531</v>
+        <v>453.4027750681533</v>
       </c>
       <c r="F13" t="n">
-        <v>343.7795577352559</v>
+        <v>343.779557735256</v>
       </c>
       <c r="G13" t="n">
-        <v>231.7654388472305</v>
+        <v>231.7654388472308</v>
       </c>
       <c r="H13" t="n">
-        <v>139.1962524824847</v>
+        <v>139.196252482485</v>
       </c>
       <c r="I13" t="n">
         <v>84.72563230490736</v>
@@ -5205,22 +5205,22 @@
         <v>403.0147496445389</v>
       </c>
       <c r="L13" t="n">
-        <v>750.1009110418629</v>
+        <v>750.1009110418628</v>
       </c>
       <c r="M13" t="n">
         <v>1128.362894628577</v>
       </c>
       <c r="N13" t="n">
-        <v>1497.36536899259</v>
+        <v>1497.365368992589</v>
       </c>
       <c r="O13" t="n">
-        <v>1842.475056162604</v>
+        <v>1842.475056162603</v>
       </c>
       <c r="P13" t="n">
-        <v>2129.133661704597</v>
+        <v>2129.133661704596</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.316748074491</v>
+        <v>2267.31674807449</v>
       </c>
       <c r="R13" t="n">
         <v>2247.319997520791</v>
@@ -5244,7 +5244,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y13" t="n">
-        <v>912.5696794832055</v>
+        <v>912.5696794832056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2130.268089086341</v>
+        <v>2130.26808908634</v>
       </c>
       <c r="C14" t="n">
-        <v>1775.151406956123</v>
+        <v>1775.151406956122</v>
       </c>
       <c r="D14" t="n">
-        <v>1425.695385605695</v>
+        <v>1425.695385605694</v>
       </c>
       <c r="E14" t="n">
-        <v>1066.363078679103</v>
+        <v>1066.363078679102</v>
       </c>
       <c r="F14" t="n">
-        <v>700.3405751893021</v>
+        <v>700.3405751893014</v>
       </c>
       <c r="G14" t="n">
-        <v>347.1292971781652</v>
+        <v>347.1292971781646</v>
       </c>
       <c r="H14" t="n">
-        <v>96.44250353899852</v>
+        <v>96.44250353899849</v>
       </c>
       <c r="I14" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J14" t="n">
-        <v>84.72563230490738</v>
+        <v>381.2602616232856</v>
       </c>
       <c r="K14" t="n">
-        <v>686.3555431453574</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L14" t="n">
-        <v>1477.687598666956</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="M14" t="n">
-        <v>2065.458956718657</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="N14" t="n">
-        <v>2907.671813097848</v>
+        <v>2460.728187839596</v>
       </c>
       <c r="O14" t="n">
-        <v>3635.372911136235</v>
+        <v>3188.429285877983</v>
       </c>
       <c r="P14" t="n">
-        <v>4236.281615245369</v>
+        <v>3789.337989987117</v>
       </c>
       <c r="Q14" t="n">
-        <v>4236.281615245369</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="R14" t="n">
-        <v>4236.281615245369</v>
+        <v>4236.281615245368</v>
       </c>
       <c r="S14" t="n">
-        <v>4167.609508777781</v>
+        <v>4167.60950877778</v>
       </c>
       <c r="T14" t="n">
-        <v>4002.639507760398</v>
+        <v>4002.639507760397</v>
       </c>
       <c r="U14" t="n">
-        <v>3800.627652379581</v>
+        <v>3800.62765237958</v>
       </c>
       <c r="V14" t="n">
-        <v>3505.798006272573</v>
+        <v>3505.798006272572</v>
       </c>
       <c r="W14" t="n">
-        <v>3177.045613964253</v>
+        <v>3177.045613964252</v>
       </c>
       <c r="X14" t="n">
         <v>2831.410124689717</v>
       </c>
       <c r="Y14" t="n">
-        <v>2485.481360194319</v>
+        <v>2485.481360194318</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>751.2749763312324</v>
+        <v>751.2749763312322</v>
       </c>
       <c r="C15" t="n">
-        <v>617.2799050801781</v>
+        <v>617.279905080178</v>
       </c>
       <c r="D15" t="n">
-        <v>500.3827472995705</v>
+        <v>500.3827472995704</v>
       </c>
       <c r="E15" t="n">
-        <v>379.8899312918985</v>
+        <v>379.8899312918984</v>
       </c>
       <c r="F15" t="n">
-        <v>270.9300514744031</v>
+        <v>270.930051474403</v>
       </c>
       <c r="G15" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H15" t="n">
-        <v>96.09584253655007</v>
+        <v>96.09584253655005</v>
       </c>
       <c r="I15" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J15" t="n">
-        <v>84.72563230490738</v>
+        <v>302.7613581625967</v>
       </c>
       <c r="K15" t="n">
-        <v>318.8311726602105</v>
+        <v>801.6775137835001</v>
       </c>
       <c r="L15" t="n">
-        <v>321.2443738630956</v>
+        <v>1036.24031278522</v>
       </c>
       <c r="M15" t="n">
-        <v>331.8999974532833</v>
+        <v>1046.895936375408</v>
       </c>
       <c r="N15" t="n">
-        <v>348.6731448839835</v>
+        <v>1063.669083806108</v>
       </c>
       <c r="O15" t="n">
-        <v>1116.149335583163</v>
+        <v>1070.014219749393</v>
       </c>
       <c r="P15" t="n">
-        <v>1728.834905887493</v>
+        <v>1682.699790053723</v>
       </c>
       <c r="Q15" t="n">
-        <v>2112.757935116266</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="R15" t="n">
-        <v>2112.757935116266</v>
+        <v>2112.757935116265</v>
       </c>
       <c r="S15" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T15" t="n">
-        <v>1851.583536122984</v>
+        <v>1851.583536122983</v>
       </c>
       <c r="U15" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V15" t="n">
-        <v>1440.539118727768</v>
+        <v>1440.539118727767</v>
       </c>
       <c r="W15" t="n">
         <v>1227.305950464096</v>
@@ -5402,7 +5402,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y15" t="n">
-        <v>891.5780089668191</v>
+        <v>891.5780089668189</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.8778816456722</v>
+        <v>779.8778816456725</v>
       </c>
       <c r="C16" t="n">
-        <v>663.7924177639003</v>
+        <v>663.7924177639005</v>
       </c>
       <c r="D16" t="n">
-        <v>559.3056816433218</v>
+        <v>559.305681643322</v>
       </c>
       <c r="E16" t="n">
-        <v>453.4027750681528</v>
+        <v>453.4027750681531</v>
       </c>
       <c r="F16" t="n">
-        <v>343.7795577352556</v>
+        <v>343.7795577352558</v>
       </c>
       <c r="G16" t="n">
-        <v>231.7654388472302</v>
+        <v>231.7654388472305</v>
       </c>
       <c r="H16" t="n">
-        <v>139.1962524824844</v>
+        <v>139.1962524824847</v>
       </c>
       <c r="I16" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J16" t="n">
         <v>168.5454498798343</v>
@@ -5448,16 +5448,16 @@
         <v>1128.362894628577</v>
       </c>
       <c r="N16" t="n">
-        <v>1497.365368992589</v>
+        <v>1497.36536899259</v>
       </c>
       <c r="O16" t="n">
         <v>1842.475056162604</v>
       </c>
       <c r="P16" t="n">
-        <v>2129.133661704597</v>
+        <v>2129.133661704598</v>
       </c>
       <c r="Q16" t="n">
-        <v>2267.31674807449</v>
+        <v>2267.316748074491</v>
       </c>
       <c r="R16" t="n">
         <v>2247.319997520791</v>
@@ -5481,7 +5481,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.5696794832052</v>
+        <v>912.5696794832054</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2130.268089086341</v>
+        <v>2130.26808908634</v>
       </c>
       <c r="C17" t="n">
-        <v>1775.151406956123</v>
+        <v>1775.151406956122</v>
       </c>
       <c r="D17" t="n">
-        <v>1425.695385605695</v>
+        <v>1425.695385605694</v>
       </c>
       <c r="E17" t="n">
-        <v>1066.363078679103</v>
+        <v>1066.363078679102</v>
       </c>
       <c r="F17" t="n">
-        <v>700.3405751893023</v>
+        <v>700.3405751893014</v>
       </c>
       <c r="G17" t="n">
-        <v>347.1292971781655</v>
+        <v>347.1292971781646</v>
       </c>
       <c r="H17" t="n">
-        <v>96.44250353899869</v>
+        <v>96.44250353899778</v>
       </c>
       <c r="I17" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J17" t="n">
-        <v>84.72563230490738</v>
+        <v>381.2602616232856</v>
       </c>
       <c r="K17" t="n">
-        <v>84.72563230490738</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L17" t="n">
-        <v>876.0576878265058</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="M17" t="n">
-        <v>1739.990429995018</v>
+        <v>2638.154970153846</v>
       </c>
       <c r="N17" t="n">
-        <v>2582.203286374208</v>
+        <v>2835.771963097947</v>
       </c>
       <c r="O17" t="n">
-        <v>3309.904384412595</v>
+        <v>3563.473061136334</v>
       </c>
       <c r="P17" t="n">
-        <v>3910.813088521729</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="Q17" t="n">
-        <v>4236.281615245369</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="R17" t="n">
-        <v>4236.281615245369</v>
+        <v>4236.281615245368</v>
       </c>
       <c r="S17" t="n">
-        <v>4167.609508777781</v>
+        <v>4167.60950877778</v>
       </c>
       <c r="T17" t="n">
-        <v>4002.639507760398</v>
+        <v>4002.639507760397</v>
       </c>
       <c r="U17" t="n">
-        <v>3800.627652379581</v>
+        <v>3800.62765237958</v>
       </c>
       <c r="V17" t="n">
-        <v>3505.798006272573</v>
+        <v>3505.798006272572</v>
       </c>
       <c r="W17" t="n">
-        <v>3177.045613964253</v>
+        <v>3177.045613964252</v>
       </c>
       <c r="X17" t="n">
-        <v>2831.410124689718</v>
+        <v>2831.410124689717</v>
       </c>
       <c r="Y17" t="n">
-        <v>2485.481360194319</v>
+        <v>2485.481360194318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>751.2749763312324</v>
+        <v>751.2749763312322</v>
       </c>
       <c r="C18" t="n">
-        <v>617.2799050801781</v>
+        <v>617.279905080178</v>
       </c>
       <c r="D18" t="n">
-        <v>500.3827472995705</v>
+        <v>500.3827472995704</v>
       </c>
       <c r="E18" t="n">
-        <v>379.8899312918985</v>
+        <v>379.8899312918984</v>
       </c>
       <c r="F18" t="n">
-        <v>270.9300514744031</v>
+        <v>270.930051474403</v>
       </c>
       <c r="G18" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H18" t="n">
-        <v>96.09584253655007</v>
+        <v>96.09584253655005</v>
       </c>
       <c r="I18" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J18" t="n">
-        <v>84.72563230490738</v>
+        <v>302.7613581625967</v>
       </c>
       <c r="K18" t="n">
-        <v>583.6417879258108</v>
+        <v>801.6775137835001</v>
       </c>
       <c r="L18" t="n">
-        <v>586.054989128696</v>
+        <v>1420.163342013993</v>
       </c>
       <c r="M18" t="n">
-        <v>596.7106127188837</v>
+        <v>1430.818965604181</v>
       </c>
       <c r="N18" t="n">
-        <v>613.4837601495838</v>
+        <v>1447.592113034881</v>
       </c>
       <c r="O18" t="n">
-        <v>1070.014219749393</v>
+        <v>1453.937248978166</v>
       </c>
       <c r="P18" t="n">
-        <v>1682.699790053724</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="Q18" t="n">
         <v>2066.622819282496</v>
       </c>
       <c r="R18" t="n">
-        <v>2112.757935116266</v>
+        <v>2112.757935116265</v>
       </c>
       <c r="S18" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T18" t="n">
-        <v>1851.583536122984</v>
+        <v>1851.583536122983</v>
       </c>
       <c r="U18" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V18" t="n">
-        <v>1440.539118727768</v>
+        <v>1440.539118727767</v>
       </c>
       <c r="W18" t="n">
         <v>1227.305950464096</v>
@@ -5639,7 +5639,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y18" t="n">
-        <v>891.5780089668191</v>
+        <v>891.5780089668189</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.8778816456727</v>
+        <v>779.8778816456725</v>
       </c>
       <c r="C19" t="n">
-        <v>663.7924177639007</v>
+        <v>663.7924177639005</v>
       </c>
       <c r="D19" t="n">
-        <v>559.3056816433223</v>
+        <v>559.305681643322</v>
       </c>
       <c r="E19" t="n">
-        <v>453.4027750681532</v>
+        <v>453.4027750681531</v>
       </c>
       <c r="F19" t="n">
-        <v>343.7795577352559</v>
+        <v>343.7795577352558</v>
       </c>
       <c r="G19" t="n">
         <v>231.7654388472305</v>
@@ -5670,25 +5670,25 @@
         <v>139.1962524824847</v>
       </c>
       <c r="I19" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J19" t="n">
-        <v>168.5454498798343</v>
+        <v>168.5454498798353</v>
       </c>
       <c r="K19" t="n">
-        <v>403.0147496445389</v>
+        <v>403.0147496445398</v>
       </c>
       <c r="L19" t="n">
-        <v>750.1009110418629</v>
+        <v>750.1009110418639</v>
       </c>
       <c r="M19" t="n">
-        <v>1128.362894628577</v>
+        <v>1128.362894628578</v>
       </c>
       <c r="N19" t="n">
-        <v>1497.365368992589</v>
+        <v>1497.36536899259</v>
       </c>
       <c r="O19" t="n">
-        <v>1842.475056162605</v>
+        <v>1842.475056162604</v>
       </c>
       <c r="P19" t="n">
         <v>2129.133661704598</v>
@@ -5697,10 +5697,10 @@
         <v>2267.316748074491</v>
       </c>
       <c r="R19" t="n">
-        <v>2247.319997520792</v>
+        <v>2247.319997520791</v>
       </c>
       <c r="S19" t="n">
-        <v>2119.915893216814</v>
+        <v>2119.915893216813</v>
       </c>
       <c r="T19" t="n">
         <v>1936.350798259684</v>
@@ -5709,7 +5709,7 @@
         <v>1708.573015560315</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.695179056349</v>
+        <v>1489.695179056348</v>
       </c>
       <c r="W19" t="n">
         <v>1265.633423121734</v>
@@ -5718,7 +5718,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y19" t="n">
-        <v>912.5696794832056</v>
+        <v>912.5696794832054</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2130.268089086341</v>
       </c>
       <c r="C20" t="n">
-        <v>1775.151406956123</v>
+        <v>1775.151406956122</v>
       </c>
       <c r="D20" t="n">
         <v>1425.695385605695</v>
@@ -5740,16 +5740,16 @@
         <v>1066.363078679103</v>
       </c>
       <c r="F20" t="n">
-        <v>700.3405751893023</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G20" t="n">
-        <v>347.1292971781655</v>
+        <v>347.1292971781654</v>
       </c>
       <c r="H20" t="n">
-        <v>96.44250353899869</v>
+        <v>96.44250353899849</v>
       </c>
       <c r="I20" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J20" t="n">
         <v>381.2602616232856</v>
@@ -5764,25 +5764,25 @@
         <v>2638.154970153846</v>
       </c>
       <c r="N20" t="n">
-        <v>2638.154970153846</v>
+        <v>3188.429285877983</v>
       </c>
       <c r="O20" t="n">
-        <v>3365.856068192233</v>
+        <v>3188.429285877983</v>
       </c>
       <c r="P20" t="n">
-        <v>3789.337989987118</v>
+        <v>3789.337989987117</v>
       </c>
       <c r="Q20" t="n">
-        <v>4164.381765245469</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="R20" t="n">
-        <v>4236.281615245369</v>
+        <v>4236.281615245368</v>
       </c>
       <c r="S20" t="n">
-        <v>4167.609508777781</v>
+        <v>4167.60950877778</v>
       </c>
       <c r="T20" t="n">
-        <v>4002.639507760398</v>
+        <v>4002.639507760397</v>
       </c>
       <c r="U20" t="n">
         <v>3800.627652379581</v>
@@ -5794,7 +5794,7 @@
         <v>3177.045613964253</v>
       </c>
       <c r="X20" t="n">
-        <v>2831.410124689718</v>
+        <v>2831.410124689717</v>
       </c>
       <c r="Y20" t="n">
         <v>2485.481360194319</v>
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>751.2749763312324</v>
+        <v>751.2749763312322</v>
       </c>
       <c r="C21" t="n">
-        <v>617.2799050801781</v>
+        <v>617.279905080178</v>
       </c>
       <c r="D21" t="n">
-        <v>500.3827472995705</v>
+        <v>500.3827472995704</v>
       </c>
       <c r="E21" t="n">
-        <v>379.8899312918985</v>
+        <v>379.8899312918984</v>
       </c>
       <c r="F21" t="n">
-        <v>270.9300514744031</v>
+        <v>270.930051474403</v>
       </c>
       <c r="G21" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H21" t="n">
-        <v>96.09584253655007</v>
+        <v>96.09584253655005</v>
       </c>
       <c r="I21" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J21" t="n">
-        <v>248.3275505319455</v>
+        <v>302.7613581625967</v>
       </c>
       <c r="K21" t="n">
-        <v>747.2437061528489</v>
+        <v>801.6775137835001</v>
       </c>
       <c r="L21" t="n">
-        <v>1466.298457847763</v>
+        <v>1036.24031278522</v>
       </c>
       <c r="M21" t="n">
-        <v>1476.954081437951</v>
+        <v>1046.895936375408</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.727228868651</v>
+        <v>1063.669083806108</v>
       </c>
       <c r="O21" t="n">
-        <v>1500.072364811936</v>
+        <v>1070.014219749393</v>
       </c>
       <c r="P21" t="n">
-        <v>2112.757935116266</v>
+        <v>1682.699790053723</v>
       </c>
       <c r="Q21" t="n">
-        <v>2112.757935116266</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="R21" t="n">
-        <v>2112.757935116266</v>
+        <v>2112.757935116265</v>
       </c>
       <c r="S21" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T21" t="n">
-        <v>1851.583536122984</v>
+        <v>1851.583536122983</v>
       </c>
       <c r="U21" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V21" t="n">
-        <v>1440.539118727768</v>
+        <v>1440.539118727767</v>
       </c>
       <c r="W21" t="n">
         <v>1227.305950464096</v>
@@ -5876,7 +5876,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y21" t="n">
-        <v>891.5780089668191</v>
+        <v>891.5780089668189</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.8778816456727</v>
+        <v>779.8778816456725</v>
       </c>
       <c r="C22" t="n">
-        <v>663.7924177639007</v>
+        <v>663.7924177639005</v>
       </c>
       <c r="D22" t="n">
-        <v>559.3056816433223</v>
+        <v>559.305681643322</v>
       </c>
       <c r="E22" t="n">
-        <v>453.4027750681532</v>
+        <v>453.4027750681531</v>
       </c>
       <c r="F22" t="n">
-        <v>343.7795577352559</v>
+        <v>343.7795577352558</v>
       </c>
       <c r="G22" t="n">
         <v>231.7654388472305</v>
@@ -5907,25 +5907,25 @@
         <v>139.1962524824847</v>
       </c>
       <c r="I22" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J22" t="n">
         <v>168.5454498798343</v>
       </c>
       <c r="K22" t="n">
-        <v>403.0147496445389</v>
+        <v>403.0147496445388</v>
       </c>
       <c r="L22" t="n">
-        <v>750.1009110418629</v>
+        <v>750.1009110418639</v>
       </c>
       <c r="M22" t="n">
-        <v>1128.362894628577</v>
+        <v>1128.362894628578</v>
       </c>
       <c r="N22" t="n">
-        <v>1497.365368992589</v>
+        <v>1497.36536899259</v>
       </c>
       <c r="O22" t="n">
-        <v>1842.475056162603</v>
+        <v>1842.475056162604</v>
       </c>
       <c r="P22" t="n">
         <v>2129.133661704598</v>
@@ -5934,10 +5934,10 @@
         <v>2267.316748074491</v>
       </c>
       <c r="R22" t="n">
-        <v>2247.319997520792</v>
+        <v>2247.319997520791</v>
       </c>
       <c r="S22" t="n">
-        <v>2119.915893216814</v>
+        <v>2119.915893216813</v>
       </c>
       <c r="T22" t="n">
         <v>1936.350798259684</v>
@@ -5946,7 +5946,7 @@
         <v>1708.573015560315</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.695179056349</v>
+        <v>1489.695179056348</v>
       </c>
       <c r="W22" t="n">
         <v>1265.633423121734</v>
@@ -5955,7 +5955,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y22" t="n">
-        <v>912.5696794832056</v>
+        <v>912.5696794832054</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2130.268089086341</v>
+        <v>2130.26808908634</v>
       </c>
       <c r="C23" t="n">
-        <v>1775.151406956122</v>
+        <v>1775.151406956123</v>
       </c>
       <c r="D23" t="n">
         <v>1425.695385605695</v>
@@ -5977,43 +5977,43 @@
         <v>1066.363078679103</v>
       </c>
       <c r="F23" t="n">
-        <v>700.3405751893021</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G23" t="n">
-        <v>347.1292971781652</v>
+        <v>347.1292971781653</v>
       </c>
       <c r="H23" t="n">
-        <v>96.44250353899852</v>
+        <v>96.44250353899849</v>
       </c>
       <c r="I23" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J23" t="n">
-        <v>297.4532150982576</v>
+        <v>337.5731022973299</v>
       </c>
       <c r="K23" t="n">
-        <v>899.0831259387076</v>
+        <v>939.2030131377799</v>
       </c>
       <c r="L23" t="n">
-        <v>1690.415181460306</v>
+        <v>1730.535068659378</v>
       </c>
       <c r="M23" t="n">
-        <v>1690.415181460306</v>
+        <v>2594.46781082789</v>
       </c>
       <c r="N23" t="n">
-        <v>2532.628037839497</v>
+        <v>3436.680667207081</v>
       </c>
       <c r="O23" t="n">
-        <v>3260.329135877884</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="P23" t="n">
-        <v>3861.237839987018</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="Q23" t="n">
-        <v>4236.281615245369</v>
+        <v>4164.381765245468</v>
       </c>
       <c r="R23" t="n">
-        <v>4236.281615245369</v>
+        <v>4236.281615245368</v>
       </c>
       <c r="S23" t="n">
         <v>4167.60950877778</v>
@@ -6022,19 +6022,19 @@
         <v>4002.639507760397</v>
       </c>
       <c r="U23" t="n">
-        <v>3800.627652379581</v>
+        <v>3800.62765237958</v>
       </c>
       <c r="V23" t="n">
-        <v>3505.798006272573</v>
+        <v>3505.798006272572</v>
       </c>
       <c r="W23" t="n">
-        <v>3177.045613964253</v>
+        <v>3177.045613964252</v>
       </c>
       <c r="X23" t="n">
         <v>2831.410124689717</v>
       </c>
       <c r="Y23" t="n">
-        <v>2485.481360194319</v>
+        <v>2485.481360194318</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>751.2749763312324</v>
+        <v>751.2749763312322</v>
       </c>
       <c r="C24" t="n">
-        <v>617.2799050801781</v>
+        <v>617.279905080178</v>
       </c>
       <c r="D24" t="n">
-        <v>500.3827472995705</v>
+        <v>500.3827472995704</v>
       </c>
       <c r="E24" t="n">
-        <v>379.8899312918985</v>
+        <v>379.8899312918984</v>
       </c>
       <c r="F24" t="n">
-        <v>270.9300514744031</v>
+        <v>270.930051474403</v>
       </c>
       <c r="G24" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H24" t="n">
-        <v>96.09584253655007</v>
+        <v>96.09584253655005</v>
       </c>
       <c r="I24" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J24" t="n">
-        <v>84.72563230490738</v>
+        <v>302.7613581625967</v>
       </c>
       <c r="K24" t="n">
-        <v>583.6417879258108</v>
+        <v>801.6775137835001</v>
       </c>
       <c r="L24" t="n">
-        <v>1082.37542861899</v>
+        <v>1036.24031278522</v>
       </c>
       <c r="M24" t="n">
-        <v>1093.031052209178</v>
+        <v>1046.895936375408</v>
       </c>
       <c r="N24" t="n">
-        <v>1109.804199639878</v>
+        <v>1063.669083806108</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.149335583163</v>
+        <v>1070.014219749393</v>
       </c>
       <c r="P24" t="n">
-        <v>1728.834905887493</v>
+        <v>1682.699790053723</v>
       </c>
       <c r="Q24" t="n">
-        <v>2112.757935116266</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="R24" t="n">
-        <v>2112.757935116266</v>
+        <v>2112.757935116265</v>
       </c>
       <c r="S24" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T24" t="n">
-        <v>1851.583536122984</v>
+        <v>1851.583536122983</v>
       </c>
       <c r="U24" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V24" t="n">
-        <v>1440.539118727768</v>
+        <v>1440.539118727767</v>
       </c>
       <c r="W24" t="n">
         <v>1227.305950464096</v>
@@ -6113,7 +6113,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y24" t="n">
-        <v>891.5780089668191</v>
+        <v>891.5780089668189</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.8778816456727</v>
+        <v>779.8778816456725</v>
       </c>
       <c r="C25" t="n">
-        <v>663.7924177639007</v>
+        <v>663.7924177639005</v>
       </c>
       <c r="D25" t="n">
-        <v>559.3056816433223</v>
+        <v>559.305681643322</v>
       </c>
       <c r="E25" t="n">
-        <v>453.4027750681532</v>
+        <v>453.4027750681531</v>
       </c>
       <c r="F25" t="n">
-        <v>343.7795577352559</v>
+        <v>343.7795577352558</v>
       </c>
       <c r="G25" t="n">
         <v>231.7654388472305</v>
@@ -6144,13 +6144,13 @@
         <v>139.1962524824847</v>
       </c>
       <c r="I25" t="n">
-        <v>84.72563230490738</v>
+        <v>84.72563230490736</v>
       </c>
       <c r="J25" t="n">
         <v>168.5454498798343</v>
       </c>
       <c r="K25" t="n">
-        <v>403.0147496445389</v>
+        <v>403.0147496445388</v>
       </c>
       <c r="L25" t="n">
         <v>750.1009110418629</v>
@@ -6165,16 +6165,16 @@
         <v>1842.475056162603</v>
       </c>
       <c r="P25" t="n">
-        <v>2129.133661704598</v>
+        <v>2129.133661704596</v>
       </c>
       <c r="Q25" t="n">
-        <v>2267.316748074491</v>
+        <v>2267.31674807449</v>
       </c>
       <c r="R25" t="n">
-        <v>2247.319997520792</v>
+        <v>2247.319997520791</v>
       </c>
       <c r="S25" t="n">
-        <v>2119.915893216814</v>
+        <v>2119.915893216813</v>
       </c>
       <c r="T25" t="n">
         <v>1936.350798259684</v>
@@ -6183,7 +6183,7 @@
         <v>1708.573015560315</v>
       </c>
       <c r="V25" t="n">
-        <v>1489.695179056349</v>
+        <v>1489.695179056348</v>
       </c>
       <c r="W25" t="n">
         <v>1265.633423121734</v>
@@ -6192,7 +6192,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y25" t="n">
-        <v>912.5696794832056</v>
+        <v>912.5696794832054</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>398.0994173038504</v>
       </c>
       <c r="K26" t="n">
-        <v>805.2083177985339</v>
+        <v>999.7293281443003</v>
       </c>
       <c r="L26" t="n">
-        <v>1596.540373320132</v>
+        <v>1791.061383665899</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.473115488644</v>
+        <v>2654.994125834411</v>
       </c>
       <c r="N26" t="n">
-        <v>3302.685971867835</v>
+        <v>3497.206982213601</v>
       </c>
       <c r="O26" t="n">
-        <v>4030.387069906222</v>
+        <v>4224.908080251988</v>
       </c>
       <c r="P26" t="n">
-        <v>4631.295774015356</v>
+        <v>4825.816784361123</v>
       </c>
       <c r="Q26" t="n">
-        <v>5006.339549273707</v>
+        <v>5078.239399273607</v>
       </c>
       <c r="R26" t="n">
         <v>5078.239399273607</v>
@@ -6256,10 +6256,10 @@
         <v>4954.559384249507</v>
       </c>
       <c r="T26" t="n">
-        <v>4734.581474675613</v>
+        <v>4734.581474675612</v>
       </c>
       <c r="U26" t="n">
-        <v>4477.561710738284</v>
+        <v>4477.561710738283</v>
       </c>
       <c r="V26" t="n">
         <v>4127.724156074764</v>
@@ -6268,7 +6268,7 @@
         <v>3743.963855209933</v>
       </c>
       <c r="X26" t="n">
-        <v>3343.320457378886</v>
+        <v>3343.320457378885</v>
       </c>
       <c r="Y26" t="n">
         <v>2942.383784326976</v>
@@ -6305,28 +6305,28 @@
         <v>101.5647879854721</v>
       </c>
       <c r="J27" t="n">
-        <v>101.5647879854721</v>
+        <v>319.6005138431615</v>
       </c>
       <c r="K27" t="n">
-        <v>101.5647879854721</v>
+        <v>818.5166694640649</v>
       </c>
       <c r="L27" t="n">
-        <v>820.6195396803861</v>
+        <v>1053.079468465785</v>
       </c>
       <c r="M27" t="n">
-        <v>1731.240884866174</v>
+        <v>1063.735092055973</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.014032296874</v>
+        <v>1080.508239486673</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.59709079683</v>
+        <v>1086.853375429958</v>
       </c>
       <c r="P27" t="n">
-        <v>2129.59709079683</v>
+        <v>1699.538945734288</v>
       </c>
       <c r="Q27" t="n">
-        <v>2129.59709079683</v>
+        <v>2083.461974963061</v>
       </c>
       <c r="R27" t="n">
         <v>2129.59709079683</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.5647879854721</v>
+        <v>371.3880785523098</v>
       </c>
       <c r="C28" t="n">
-        <v>101.5647879854721</v>
+        <v>200.2947061140263</v>
       </c>
       <c r="D28" t="n">
-        <v>101.5647879854721</v>
+        <v>200.2947061140263</v>
       </c>
       <c r="E28" t="n">
-        <v>101.5647879854721</v>
+        <v>200.2947061140263</v>
       </c>
       <c r="F28" t="n">
-        <v>101.5647879854721</v>
+        <v>200.2947061140263</v>
       </c>
       <c r="G28" t="n">
-        <v>101.5647879854721</v>
+        <v>200.2947061140263</v>
       </c>
       <c r="H28" t="n">
         <v>101.5647879854721</v>
@@ -6411,25 +6411,25 @@
         <v>1852.849894345159</v>
       </c>
       <c r="S28" t="n">
-        <v>1826.658159452193</v>
+        <v>1670.43788148467</v>
       </c>
       <c r="T28" t="n">
-        <v>1588.085155938552</v>
+        <v>1431.864877971029</v>
       </c>
       <c r="U28" t="n">
-        <v>1305.299464682672</v>
+        <v>1149.079186715149</v>
       </c>
       <c r="V28" t="n">
-        <v>1031.413719622194</v>
+        <v>875.1934416546708</v>
       </c>
       <c r="W28" t="n">
-        <v>752.3440551310684</v>
+        <v>596.1237771635451</v>
       </c>
       <c r="X28" t="n">
-        <v>514.0001929907519</v>
+        <v>596.1237771635451</v>
       </c>
       <c r="Y28" t="n">
-        <v>289.2644943795165</v>
+        <v>371.3880785523098</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>101.5647879854722</v>
       </c>
       <c r="J29" t="n">
-        <v>275.4782569579842</v>
+        <v>398.0994173038504</v>
       </c>
       <c r="K29" t="n">
-        <v>877.1081677984341</v>
+        <v>999.7293281443003</v>
       </c>
       <c r="L29" t="n">
-        <v>1668.440223320033</v>
+        <v>1791.061383665899</v>
       </c>
       <c r="M29" t="n">
-        <v>2532.372965488545</v>
+        <v>2460.473115488645</v>
       </c>
       <c r="N29" t="n">
-        <v>3374.585821867735</v>
+        <v>3302.685971867836</v>
       </c>
       <c r="O29" t="n">
-        <v>4102.286919906122</v>
+        <v>4030.387069906223</v>
       </c>
       <c r="P29" t="n">
-        <v>4703.195624015257</v>
+        <v>4631.295774015357</v>
       </c>
       <c r="Q29" t="n">
-        <v>5078.239399273608</v>
+        <v>5006.339549273708</v>
       </c>
       <c r="R29" t="n">
         <v>5078.239399273608</v>
@@ -6548,10 +6548,10 @@
         <v>818.516669464065</v>
       </c>
       <c r="L30" t="n">
-        <v>820.9298706669501</v>
+        <v>1053.079468465785</v>
       </c>
       <c r="M30" t="n">
-        <v>831.5854942571378</v>
+        <v>1063.735092055973</v>
       </c>
       <c r="N30" t="n">
         <v>1080.508239486673</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.586815430009</v>
+        <v>746.7519274666399</v>
       </c>
       <c r="C31" t="n">
-        <v>268.586815430009</v>
+        <v>575.6585550283564</v>
       </c>
       <c r="D31" t="n">
-        <v>268.586815430009</v>
+        <v>416.1639103512664</v>
       </c>
       <c r="E31" t="n">
-        <v>268.586815430009</v>
+        <v>416.1639103512664</v>
       </c>
       <c r="F31" t="n">
-        <v>268.586815430009</v>
+        <v>416.1639103512664</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5647879854722</v>
+        <v>249.1418829067295</v>
       </c>
       <c r="H31" t="n">
         <v>101.5647879854722</v>
@@ -6660,13 +6660,13 @@
         <v>1057.60545451516</v>
       </c>
       <c r="W31" t="n">
-        <v>778.5357900240344</v>
+        <v>1057.60545451516</v>
       </c>
       <c r="X31" t="n">
-        <v>681.0222204352888</v>
+        <v>819.2615923748435</v>
       </c>
       <c r="Y31" t="n">
-        <v>456.2865218240535</v>
+        <v>819.2615923748435</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2519.516527510847</v>
+        <v>2519.516527510846</v>
       </c>
       <c r="C32" t="n">
-        <v>2111.12282447895</v>
+        <v>2111.122824478949</v>
       </c>
       <c r="D32" t="n">
         <v>1708.389782226844</v>
@@ -6688,40 +6688,40 @@
         <v>1295.780454398574</v>
       </c>
       <c r="F32" t="n">
-        <v>876.4809300070951</v>
+        <v>876.4809300070949</v>
       </c>
       <c r="G32" t="n">
-        <v>469.9926310942801</v>
+        <v>469.99263109428</v>
       </c>
       <c r="H32" t="n">
-        <v>166.0288165534353</v>
+        <v>166.0288165534352</v>
       </c>
       <c r="I32" t="n">
         <v>101.034924417666</v>
       </c>
       <c r="J32" t="n">
-        <v>248.9850785676762</v>
+        <v>397.5695537360442</v>
       </c>
       <c r="K32" t="n">
-        <v>850.6149894081261</v>
+        <v>999.1994645764942</v>
       </c>
       <c r="L32" t="n">
-        <v>1641.947044929725</v>
+        <v>1790.531520098093</v>
       </c>
       <c r="M32" t="n">
-        <v>2505.879787098237</v>
+        <v>2654.464262266605</v>
       </c>
       <c r="N32" t="n">
-        <v>3348.092643477427</v>
+        <v>3276.192793477528</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.793741515814</v>
+        <v>4003.893891515915</v>
       </c>
       <c r="P32" t="n">
-        <v>4676.702445624948</v>
+        <v>4604.802595625049</v>
       </c>
       <c r="Q32" t="n">
-        <v>5051.746220883299</v>
+        <v>4979.8463708834</v>
       </c>
       <c r="R32" t="n">
         <v>5051.746220883299</v>
@@ -6733,19 +6733,19 @@
         <v>4711.550071594973</v>
       </c>
       <c r="U32" t="n">
-        <v>4456.261195312477</v>
+        <v>4456.261195312476</v>
       </c>
       <c r="V32" t="n">
-        <v>4108.154528303791</v>
+        <v>4108.15452830379</v>
       </c>
       <c r="W32" t="n">
-        <v>3726.125115093793</v>
+        <v>3726.125115093792</v>
       </c>
       <c r="X32" t="n">
-        <v>3327.212604917579</v>
+        <v>3327.212604917578</v>
       </c>
       <c r="Y32" t="n">
-        <v>2928.006819520503</v>
+        <v>2928.006819520502</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>101.034924417666</v>
       </c>
       <c r="J33" t="n">
-        <v>101.034924417666</v>
+        <v>319.0706502753553</v>
       </c>
       <c r="K33" t="n">
-        <v>101.034924417666</v>
+        <v>319.0706502753553</v>
       </c>
       <c r="L33" t="n">
-        <v>820.08967611258</v>
+        <v>321.4838514782405</v>
       </c>
       <c r="M33" t="n">
-        <v>830.7452997027677</v>
+        <v>332.1394750684282</v>
       </c>
       <c r="N33" t="n">
-        <v>1773.837998704898</v>
+        <v>1275.232174070559</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.067227229024</v>
+        <v>1281.577310013843</v>
       </c>
       <c r="P33" t="n">
-        <v>2129.067227229024</v>
+        <v>1699.009082166482</v>
       </c>
       <c r="Q33" t="n">
-        <v>2129.067227229024</v>
+        <v>2082.932111395255</v>
       </c>
       <c r="R33" t="n">
         <v>2129.067227229024</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>338.8832355576944</v>
+        <v>525.4429526195197</v>
       </c>
       <c r="C34" t="n">
-        <v>169.5207507742443</v>
+        <v>525.4429526195197</v>
       </c>
       <c r="D34" t="n">
-        <v>169.5207507742443</v>
+        <v>525.4429526195197</v>
       </c>
       <c r="E34" t="n">
-        <v>169.5207507742443</v>
+        <v>525.4429526195197</v>
       </c>
       <c r="F34" t="n">
-        <v>169.5207507742443</v>
+        <v>362.5427143849444</v>
       </c>
       <c r="G34" t="n">
-        <v>101.034924417666</v>
+        <v>197.2515745952409</v>
       </c>
       <c r="H34" t="n">
         <v>101.034924417666</v>
@@ -6858,16 +6858,16 @@
         <v>101.034924417666</v>
       </c>
       <c r="J34" t="n">
-        <v>132.6379338068582</v>
+        <v>132.6379338068583</v>
       </c>
       <c r="K34" t="n">
-        <v>314.890425385828</v>
+        <v>314.8904253858281</v>
       </c>
       <c r="L34" t="n">
-        <v>609.7597785974174</v>
+        <v>609.7597785974175</v>
       </c>
       <c r="M34" t="n">
-        <v>935.804953998397</v>
+        <v>935.8049539983972</v>
       </c>
       <c r="N34" t="n">
         <v>1252.590620176674</v>
@@ -6876,7 +6876,7 @@
         <v>1545.483499160954</v>
       </c>
       <c r="P34" t="n">
-        <v>1779.925296517212</v>
+        <v>1779.925296517213</v>
       </c>
       <c r="Q34" t="n">
         <v>1865.891574701371</v>
@@ -6885,25 +6885,25 @@
         <v>1865.891574701371</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.891574701371</v>
+        <v>1685.210449495715</v>
       </c>
       <c r="T34" t="n">
-        <v>1629.049458842563</v>
+        <v>1448.368333636908</v>
       </c>
       <c r="U34" t="n">
-        <v>1347.994655241517</v>
+        <v>1448.368333636908</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.839797835872</v>
+        <v>1448.368333636908</v>
       </c>
       <c r="W34" t="n">
-        <v>798.5010209995796</v>
+        <v>1171.029556800616</v>
       </c>
       <c r="X34" t="n">
-        <v>561.8880465140963</v>
+        <v>934.4165823151325</v>
       </c>
       <c r="Y34" t="n">
-        <v>338.8832355576944</v>
+        <v>711.4117713587307</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2130.26808908634</v>
+        <v>2130.268089086342</v>
       </c>
       <c r="C35" t="n">
-        <v>1775.151406956121</v>
+        <v>1775.151406956123</v>
       </c>
       <c r="D35" t="n">
-        <v>1425.695385605694</v>
+        <v>1425.695385605695</v>
       </c>
       <c r="E35" t="n">
-        <v>1066.363078679102</v>
+        <v>1066.363078679103</v>
       </c>
       <c r="F35" t="n">
-        <v>700.3405751893014</v>
+        <v>700.3405751893024</v>
       </c>
       <c r="G35" t="n">
-        <v>347.1292971781647</v>
+        <v>347.1292971781655</v>
       </c>
       <c r="H35" t="n">
-        <v>96.44250353899825</v>
+        <v>96.44250353899866</v>
       </c>
       <c r="I35" t="n">
-        <v>84.72563230490734</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J35" t="n">
-        <v>84.72563230490734</v>
+        <v>381.2602616232857</v>
       </c>
       <c r="K35" t="n">
-        <v>686.3555431453573</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.687598666956</v>
+        <v>1690.415181460308</v>
       </c>
       <c r="M35" t="n">
-        <v>2341.620340835468</v>
+        <v>1690.415181460308</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.833197214658</v>
+        <v>2532.628037839499</v>
       </c>
       <c r="O35" t="n">
-        <v>3911.534295253045</v>
+        <v>3260.329135877886</v>
       </c>
       <c r="P35" t="n">
-        <v>4236.281615245367</v>
+        <v>3861.237839987019</v>
       </c>
       <c r="Q35" t="n">
-        <v>4236.281615245367</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="R35" t="n">
-        <v>4236.281615245367</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="S35" t="n">
-        <v>4167.609508777779</v>
+        <v>4167.609508777782</v>
       </c>
       <c r="T35" t="n">
-        <v>4002.639507760397</v>
+        <v>4002.639507760399</v>
       </c>
       <c r="U35" t="n">
-        <v>3800.627652379579</v>
+        <v>3800.627652379582</v>
       </c>
       <c r="V35" t="n">
-        <v>3505.798006272571</v>
+        <v>3505.798006272574</v>
       </c>
       <c r="W35" t="n">
-        <v>3177.045613964252</v>
+        <v>3177.045613964254</v>
       </c>
       <c r="X35" t="n">
-        <v>2831.410124689716</v>
+        <v>2831.410124689718</v>
       </c>
       <c r="Y35" t="n">
-        <v>2485.481360194317</v>
+        <v>2485.48136019432</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>751.2749763312322</v>
+        <v>751.2749763312324</v>
       </c>
       <c r="C36" t="n">
-        <v>617.279905080178</v>
+        <v>617.2799050801781</v>
       </c>
       <c r="D36" t="n">
-        <v>500.3827472995704</v>
+        <v>500.3827472995705</v>
       </c>
       <c r="E36" t="n">
-        <v>379.8899312918984</v>
+        <v>379.8899312918985</v>
       </c>
       <c r="F36" t="n">
-        <v>270.930051474403</v>
+        <v>270.9300514744031</v>
       </c>
       <c r="G36" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H36" t="n">
-        <v>96.09584253655002</v>
+        <v>96.09584253655011</v>
       </c>
       <c r="I36" t="n">
-        <v>84.72563230490734</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J36" t="n">
-        <v>84.72563230490734</v>
+        <v>302.7613581625968</v>
       </c>
       <c r="K36" t="n">
-        <v>84.72563230490734</v>
+        <v>801.6775137835002</v>
       </c>
       <c r="L36" t="n">
-        <v>87.13883350779246</v>
+        <v>1036.240312785221</v>
       </c>
       <c r="M36" t="n">
-        <v>97.79445709798019</v>
+        <v>1046.895936375408</v>
       </c>
       <c r="N36" t="n">
-        <v>1040.887156100111</v>
+        <v>1063.669083806109</v>
       </c>
       <c r="O36" t="n">
-        <v>1682.699790053723</v>
+        <v>1070.014219749393</v>
       </c>
       <c r="P36" t="n">
-        <v>1682.699790053723</v>
+        <v>1682.699790053724</v>
       </c>
       <c r="Q36" t="n">
         <v>2066.622819282496</v>
       </c>
       <c r="R36" t="n">
-        <v>2112.757935116265</v>
+        <v>2112.757935116266</v>
       </c>
       <c r="S36" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T36" t="n">
-        <v>1851.583536122983</v>
+        <v>1851.583536122984</v>
       </c>
       <c r="U36" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V36" t="n">
-        <v>1440.539118727767</v>
+        <v>1440.539118727768</v>
       </c>
       <c r="W36" t="n">
         <v>1227.305950464096</v>
@@ -7061,7 +7061,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y36" t="n">
-        <v>891.5780089668189</v>
+        <v>891.5780089668191</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.8778816456709</v>
+        <v>779.8778816456734</v>
       </c>
       <c r="C37" t="n">
-        <v>663.7924177638992</v>
+        <v>663.7924177639013</v>
       </c>
       <c r="D37" t="n">
-        <v>559.3056816433209</v>
+        <v>559.3056816433227</v>
       </c>
       <c r="E37" t="n">
-        <v>453.4027750681522</v>
+        <v>453.4027750681536</v>
       </c>
       <c r="F37" t="n">
-        <v>343.7795577352551</v>
+        <v>343.7795577352562</v>
       </c>
       <c r="G37" t="n">
-        <v>231.76543884723</v>
+        <v>231.7654388472308</v>
       </c>
       <c r="H37" t="n">
-        <v>139.1962524824845</v>
+        <v>139.1962524824849</v>
       </c>
       <c r="I37" t="n">
-        <v>84.72563230490734</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J37" t="n">
-        <v>168.5454498798294</v>
+        <v>168.5454498798343</v>
       </c>
       <c r="K37" t="n">
-        <v>403.0147496445342</v>
+        <v>403.0147496445387</v>
       </c>
       <c r="L37" t="n">
-        <v>750.1009110418585</v>
+        <v>750.1009110418627</v>
       </c>
       <c r="M37" t="n">
-        <v>1128.362894628573</v>
+        <v>1128.36289462858</v>
       </c>
       <c r="N37" t="n">
-        <v>1497.365368992585</v>
+        <v>1497.365368992592</v>
       </c>
       <c r="O37" t="n">
-        <v>1842.4750561626</v>
+        <v>1842.475056162606</v>
       </c>
       <c r="P37" t="n">
-        <v>2129.133661704593</v>
+        <v>2129.133661704599</v>
       </c>
       <c r="Q37" t="n">
-        <v>2267.316748074487</v>
+        <v>2267.316748074492</v>
       </c>
       <c r="R37" t="n">
-        <v>2247.319997520788</v>
+        <v>2247.319997520793</v>
       </c>
       <c r="S37" t="n">
-        <v>2119.91589321681</v>
+        <v>2119.915893216815</v>
       </c>
       <c r="T37" t="n">
-        <v>1936.350798259681</v>
+        <v>1936.350798259685</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.573015560312</v>
+        <v>1708.573015560316</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.695179056346</v>
+        <v>1489.69517905635</v>
       </c>
       <c r="W37" t="n">
-        <v>1265.633423121732</v>
+        <v>1265.633423121735</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.297469537927</v>
+        <v>1082.29746953793</v>
       </c>
       <c r="Y37" t="n">
-        <v>912.5696794832036</v>
+        <v>912.5696794832063</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2130.268089086341</v>
+        <v>2130.268089086342</v>
       </c>
       <c r="C38" t="n">
-        <v>1775.151406956122</v>
+        <v>1775.151406956123</v>
       </c>
       <c r="D38" t="n">
-        <v>1425.695385605694</v>
+        <v>1425.695385605695</v>
       </c>
       <c r="E38" t="n">
         <v>1066.363078679103</v>
       </c>
       <c r="F38" t="n">
-        <v>700.3405751893017</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G38" t="n">
-        <v>347.129297178165</v>
+        <v>347.1292971781653</v>
       </c>
       <c r="H38" t="n">
-        <v>96.44250353899848</v>
+        <v>96.44250353899857</v>
       </c>
       <c r="I38" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J38" t="n">
-        <v>84.72563230490736</v>
+        <v>381.2602616232857</v>
       </c>
       <c r="K38" t="n">
-        <v>686.3555431453573</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L38" t="n">
-        <v>1477.687598666956</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="M38" t="n">
-        <v>2341.620340835468</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.833197214658</v>
+        <v>2532.628037839499</v>
       </c>
       <c r="O38" t="n">
-        <v>3911.534295253045</v>
+        <v>3260.329135877886</v>
       </c>
       <c r="P38" t="n">
-        <v>4236.281615245368</v>
+        <v>3861.237839987019</v>
       </c>
       <c r="Q38" t="n">
-        <v>4236.281615245368</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="R38" t="n">
-        <v>4236.281615245368</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="S38" t="n">
-        <v>4167.60950877778</v>
+        <v>4167.609508777783</v>
       </c>
       <c r="T38" t="n">
-        <v>4002.639507760397</v>
+        <v>4002.6395077604</v>
       </c>
       <c r="U38" t="n">
-        <v>3800.62765237958</v>
+        <v>3800.627652379581</v>
       </c>
       <c r="V38" t="n">
-        <v>3505.798006272573</v>
+        <v>3505.798006272574</v>
       </c>
       <c r="W38" t="n">
-        <v>3177.045613964253</v>
+        <v>3177.045613964254</v>
       </c>
       <c r="X38" t="n">
-        <v>2831.410124689717</v>
+        <v>2831.410124689718</v>
       </c>
       <c r="Y38" t="n">
         <v>2485.481360194319</v>
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>751.2749763312322</v>
+        <v>751.2749763312324</v>
       </c>
       <c r="C39" t="n">
-        <v>617.279905080178</v>
+        <v>617.2799050801781</v>
       </c>
       <c r="D39" t="n">
-        <v>500.3827472995704</v>
+        <v>500.3827472995705</v>
       </c>
       <c r="E39" t="n">
-        <v>379.8899312918984</v>
+        <v>379.8899312918985</v>
       </c>
       <c r="F39" t="n">
-        <v>270.930051474403</v>
+        <v>270.9300514744031</v>
       </c>
       <c r="G39" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H39" t="n">
-        <v>96.09584253655005</v>
+        <v>96.09584253655011</v>
       </c>
       <c r="I39" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J39" t="n">
-        <v>84.72563230490736</v>
+        <v>302.7613581625968</v>
       </c>
       <c r="K39" t="n">
-        <v>250.2855537821776</v>
+        <v>302.7613581625968</v>
       </c>
       <c r="L39" t="n">
-        <v>252.6987549850627</v>
+        <v>1021.816109857511</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.32010017085</v>
+        <v>1032.471733447699</v>
       </c>
       <c r="N39" t="n">
-        <v>2106.412799172981</v>
+        <v>1447.592113034882</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.757935116265</v>
+        <v>1453.937248978166</v>
       </c>
       <c r="P39" t="n">
-        <v>2112.757935116265</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="Q39" t="n">
-        <v>2112.757935116265</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="R39" t="n">
-        <v>2112.757935116265</v>
+        <v>2112.757935116266</v>
       </c>
       <c r="S39" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T39" t="n">
-        <v>1851.583536122983</v>
+        <v>1851.583536122984</v>
       </c>
       <c r="U39" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V39" t="n">
-        <v>1440.539118727767</v>
+        <v>1440.539118727768</v>
       </c>
       <c r="W39" t="n">
         <v>1227.305950464096</v>
@@ -7298,7 +7298,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y39" t="n">
-        <v>891.5780089668189</v>
+        <v>891.5780089668191</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.8778816456725</v>
+        <v>779.8778816456727</v>
       </c>
       <c r="C40" t="n">
-        <v>663.7924177639005</v>
+        <v>663.7924177639007</v>
       </c>
       <c r="D40" t="n">
-        <v>559.305681643322</v>
+        <v>559.3056816433223</v>
       </c>
       <c r="E40" t="n">
-        <v>453.402775068153</v>
+        <v>453.4027750681532</v>
       </c>
       <c r="F40" t="n">
-        <v>343.7795577352558</v>
+        <v>343.7795577352559</v>
       </c>
       <c r="G40" t="n">
-        <v>231.7654388472305</v>
+        <v>231.7654388472306</v>
       </c>
       <c r="H40" t="n">
-        <v>139.1962524824847</v>
+        <v>139.1962524824848</v>
       </c>
       <c r="I40" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J40" t="n">
-        <v>168.5454498798343</v>
+        <v>168.5454498798344</v>
       </c>
       <c r="K40" t="n">
         <v>403.0147496445389</v>
       </c>
       <c r="L40" t="n">
-        <v>750.100911041863</v>
+        <v>750.1009110418629</v>
       </c>
       <c r="M40" t="n">
         <v>1128.362894628577</v>
@@ -7347,19 +7347,19 @@
         <v>1497.365368992589</v>
       </c>
       <c r="O40" t="n">
-        <v>1842.475056162604</v>
+        <v>1842.475056162603</v>
       </c>
       <c r="P40" t="n">
-        <v>2129.133661704597</v>
+        <v>2129.133661704596</v>
       </c>
       <c r="Q40" t="n">
         <v>2267.316748074491</v>
       </c>
       <c r="R40" t="n">
-        <v>2247.319997520791</v>
+        <v>2247.319997520792</v>
       </c>
       <c r="S40" t="n">
-        <v>2119.915893216813</v>
+        <v>2119.915893216814</v>
       </c>
       <c r="T40" t="n">
         <v>1936.350798259684</v>
@@ -7368,7 +7368,7 @@
         <v>1708.573015560315</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.695179056348</v>
+        <v>1489.695179056349</v>
       </c>
       <c r="W40" t="n">
         <v>1265.633423121734</v>
@@ -7377,7 +7377,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y40" t="n">
-        <v>912.5696794832054</v>
+        <v>912.5696794832056</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2130.26808908634</v>
+        <v>2130.268089086341</v>
       </c>
       <c r="C41" t="n">
-        <v>1775.151406956122</v>
+        <v>1775.151406956123</v>
       </c>
       <c r="D41" t="n">
-        <v>1425.695385605694</v>
+        <v>1425.695385605695</v>
       </c>
       <c r="E41" t="n">
-        <v>1066.363078679102</v>
+        <v>1066.363078679103</v>
       </c>
       <c r="F41" t="n">
-        <v>700.3405751893014</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G41" t="n">
-        <v>347.1292971781646</v>
+        <v>347.1292971781653</v>
       </c>
       <c r="H41" t="n">
-        <v>96.44250353899781</v>
+        <v>96.44250353899855</v>
       </c>
       <c r="I41" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J41" t="n">
-        <v>84.72563230490736</v>
+        <v>381.2602616232857</v>
       </c>
       <c r="K41" t="n">
-        <v>686.3555431453573</v>
+        <v>982.8901724637356</v>
       </c>
       <c r="L41" t="n">
-        <v>1477.687598666956</v>
+        <v>1774.222227985334</v>
       </c>
       <c r="M41" t="n">
-        <v>2341.620340835468</v>
+        <v>2219.424035569542</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.833197214658</v>
+        <v>3061.636891948733</v>
       </c>
       <c r="O41" t="n">
-        <v>3911.534295253045</v>
+        <v>3789.33798998712</v>
       </c>
       <c r="P41" t="n">
-        <v>4236.281615245368</v>
+        <v>3789.33798998712</v>
       </c>
       <c r="Q41" t="n">
-        <v>4236.281615245368</v>
+        <v>4164.381765245471</v>
       </c>
       <c r="R41" t="n">
-        <v>4236.281615245368</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="S41" t="n">
-        <v>4167.60950877778</v>
+        <v>4167.609508777781</v>
       </c>
       <c r="T41" t="n">
-        <v>4002.639507760397</v>
+        <v>4002.639507760398</v>
       </c>
       <c r="U41" t="n">
-        <v>3800.62765237958</v>
+        <v>3800.627652379581</v>
       </c>
       <c r="V41" t="n">
-        <v>3505.798006272572</v>
+        <v>3505.798006272573</v>
       </c>
       <c r="W41" t="n">
-        <v>3177.045613964252</v>
+        <v>3177.045613964253</v>
       </c>
       <c r="X41" t="n">
-        <v>2831.410124689717</v>
+        <v>2831.410124689718</v>
       </c>
       <c r="Y41" t="n">
-        <v>2485.481360194318</v>
+        <v>2485.481360194319</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>751.2749763312322</v>
+        <v>751.2749763312324</v>
       </c>
       <c r="C42" t="n">
-        <v>617.279905080178</v>
+        <v>617.2799050801781</v>
       </c>
       <c r="D42" t="n">
-        <v>500.3827472995704</v>
+        <v>500.3827472995705</v>
       </c>
       <c r="E42" t="n">
-        <v>379.8899312918984</v>
+        <v>379.8899312918985</v>
       </c>
       <c r="F42" t="n">
-        <v>270.930051474403</v>
+        <v>270.9300514744031</v>
       </c>
       <c r="G42" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H42" t="n">
-        <v>96.09584253655005</v>
+        <v>96.09584253655011</v>
       </c>
       <c r="I42" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J42" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="K42" t="n">
-        <v>583.6417879258107</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="L42" t="n">
-        <v>1302.696539620725</v>
+        <v>87.13883350779254</v>
       </c>
       <c r="M42" t="n">
-        <v>2089.63965174228</v>
+        <v>779.3970709420777</v>
       </c>
       <c r="N42" t="n">
-        <v>2106.412799172981</v>
+        <v>1722.489769944208</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.757935116265</v>
+        <v>1728.834905887493</v>
       </c>
       <c r="P42" t="n">
-        <v>2112.757935116265</v>
+        <v>1728.834905887493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2112.757935116265</v>
+        <v>2112.757935116266</v>
       </c>
       <c r="R42" t="n">
-        <v>2112.757935116265</v>
+        <v>2112.757935116266</v>
       </c>
       <c r="S42" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T42" t="n">
-        <v>1851.583536122983</v>
+        <v>1851.583536122984</v>
       </c>
       <c r="U42" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V42" t="n">
-        <v>1440.539118727767</v>
+        <v>1440.539118727768</v>
       </c>
       <c r="W42" t="n">
         <v>1227.305950464096</v>
@@ -7535,7 +7535,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y42" t="n">
-        <v>891.5780089668189</v>
+        <v>891.5780089668191</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.8778816456723</v>
+        <v>779.8778816456727</v>
       </c>
       <c r="C43" t="n">
-        <v>663.7924177639004</v>
+        <v>663.7924177639007</v>
       </c>
       <c r="D43" t="n">
-        <v>559.3056816433219</v>
+        <v>559.3056816433223</v>
       </c>
       <c r="E43" t="n">
-        <v>453.4027750681529</v>
+        <v>453.4027750681532</v>
       </c>
       <c r="F43" t="n">
-        <v>343.7795577352557</v>
+        <v>343.7795577352559</v>
       </c>
       <c r="G43" t="n">
-        <v>231.7654388472304</v>
+        <v>231.7654388472305</v>
       </c>
       <c r="H43" t="n">
-        <v>139.1962524824846</v>
+        <v>139.1962524824847</v>
       </c>
       <c r="I43" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J43" t="n">
-        <v>168.5454498798343</v>
+        <v>168.5454498798344</v>
       </c>
       <c r="K43" t="n">
-        <v>403.0147496445389</v>
+        <v>403.0147496445388</v>
       </c>
       <c r="L43" t="n">
-        <v>750.100911041863</v>
+        <v>750.1009110418629</v>
       </c>
       <c r="M43" t="n">
         <v>1128.362894628577</v>
@@ -7590,7 +7590,7 @@
         <v>2129.133661704597</v>
       </c>
       <c r="Q43" t="n">
-        <v>2267.31674807449</v>
+        <v>2267.316748074491</v>
       </c>
       <c r="R43" t="n">
         <v>2247.319997520791</v>
@@ -7599,7 +7599,7 @@
         <v>2119.915893216813</v>
       </c>
       <c r="T43" t="n">
-        <v>1936.350798259683</v>
+        <v>1936.350798259684</v>
       </c>
       <c r="U43" t="n">
         <v>1708.573015560315</v>
@@ -7614,7 +7614,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y43" t="n">
-        <v>912.5696794832052</v>
+        <v>912.5696794832056</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2130.26808908634</v>
+        <v>2130.268089086341</v>
       </c>
       <c r="C44" t="n">
-        <v>1775.151406956122</v>
+        <v>1775.151406956123</v>
       </c>
       <c r="D44" t="n">
-        <v>1425.695385605694</v>
+        <v>1425.695385605695</v>
       </c>
       <c r="E44" t="n">
-        <v>1066.363078679102</v>
+        <v>1066.363078679103</v>
       </c>
       <c r="F44" t="n">
-        <v>700.3405751893014</v>
+        <v>700.3405751893022</v>
       </c>
       <c r="G44" t="n">
-        <v>347.1292971781646</v>
+        <v>347.1292971781653</v>
       </c>
       <c r="H44" t="n">
-        <v>96.44250353899781</v>
+        <v>96.44250353899855</v>
       </c>
       <c r="I44" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J44" t="n">
-        <v>84.72563230490736</v>
+        <v>381.2602616232857</v>
       </c>
       <c r="K44" t="n">
-        <v>686.3555431453573</v>
+        <v>877.363240149388</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.687598666956</v>
+        <v>1668.695295670987</v>
       </c>
       <c r="M44" t="n">
-        <v>2341.620340835468</v>
+        <v>2532.628037839499</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.833197214658</v>
+        <v>2532.628037839499</v>
       </c>
       <c r="O44" t="n">
-        <v>3911.534295253045</v>
+        <v>3260.329135877886</v>
       </c>
       <c r="P44" t="n">
-        <v>4236.281615245368</v>
+        <v>3861.237839987019</v>
       </c>
       <c r="Q44" t="n">
-        <v>4236.281615245368</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="R44" t="n">
-        <v>4236.281615245368</v>
+        <v>4236.281615245371</v>
       </c>
       <c r="S44" t="n">
-        <v>4167.60950877778</v>
+        <v>4167.609508777783</v>
       </c>
       <c r="T44" t="n">
-        <v>4002.639507760397</v>
+        <v>4002.6395077604</v>
       </c>
       <c r="U44" t="n">
-        <v>3800.62765237958</v>
+        <v>3800.627652379583</v>
       </c>
       <c r="V44" t="n">
-        <v>3505.798006272572</v>
+        <v>3505.798006272575</v>
       </c>
       <c r="W44" t="n">
-        <v>3177.045613964252</v>
+        <v>3177.045613964255</v>
       </c>
       <c r="X44" t="n">
-        <v>2831.410124689717</v>
+        <v>2831.410124689719</v>
       </c>
       <c r="Y44" t="n">
-        <v>2485.481360194318</v>
+        <v>2485.481360194319</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>751.2749763312322</v>
+        <v>751.2749763312324</v>
       </c>
       <c r="C45" t="n">
-        <v>617.279905080178</v>
+        <v>617.2799050801781</v>
       </c>
       <c r="D45" t="n">
-        <v>500.3827472995704</v>
+        <v>500.3827472995705</v>
       </c>
       <c r="E45" t="n">
-        <v>379.8899312918984</v>
+        <v>379.8899312918985</v>
       </c>
       <c r="F45" t="n">
-        <v>270.930051474403</v>
+        <v>270.9300514744031</v>
       </c>
       <c r="G45" t="n">
         <v>164.2123299864195</v>
       </c>
       <c r="H45" t="n">
-        <v>96.09584253655005</v>
+        <v>96.09584253655011</v>
       </c>
       <c r="I45" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J45" t="n">
-        <v>84.72563230490736</v>
+        <v>302.7613581625968</v>
       </c>
       <c r="K45" t="n">
-        <v>84.72563230490736</v>
+        <v>701.1085903190796</v>
       </c>
       <c r="L45" t="n">
-        <v>417.8872518005984</v>
+        <v>1420.163342013994</v>
       </c>
       <c r="M45" t="n">
-        <v>1328.508596986386</v>
+        <v>1430.818965604181</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.281744417086</v>
+        <v>1447.592113034882</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.757935116265</v>
+        <v>1453.937248978166</v>
       </c>
       <c r="P45" t="n">
-        <v>2112.757935116265</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="Q45" t="n">
-        <v>2112.757935116265</v>
+        <v>2066.622819282496</v>
       </c>
       <c r="R45" t="n">
-        <v>2112.757935116265</v>
+        <v>2112.757935116266</v>
       </c>
       <c r="S45" t="n">
         <v>2009.827472257616</v>
       </c>
       <c r="T45" t="n">
-        <v>1851.583536122983</v>
+        <v>1851.583536122984</v>
       </c>
       <c r="U45" t="n">
         <v>1654.250645734734</v>
       </c>
       <c r="V45" t="n">
-        <v>1440.539118727767</v>
+        <v>1440.539118727768</v>
       </c>
       <c r="W45" t="n">
         <v>1227.305950464096</v>
@@ -7772,7 +7772,7 @@
         <v>1050.979968602989</v>
       </c>
       <c r="Y45" t="n">
-        <v>891.5780089668189</v>
+        <v>891.5780089668191</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.8778816456725</v>
+        <v>779.8778816456727</v>
       </c>
       <c r="C46" t="n">
-        <v>663.7924177639005</v>
+        <v>663.7924177639007</v>
       </c>
       <c r="D46" t="n">
-        <v>559.305681643322</v>
+        <v>559.3056816433223</v>
       </c>
       <c r="E46" t="n">
-        <v>453.402775068153</v>
+        <v>453.4027750681532</v>
       </c>
       <c r="F46" t="n">
-        <v>343.7795577352558</v>
+        <v>343.7795577352559</v>
       </c>
       <c r="G46" t="n">
         <v>231.7654388472305</v>
@@ -7803,16 +7803,16 @@
         <v>139.1962524824847</v>
       </c>
       <c r="I46" t="n">
-        <v>84.72563230490736</v>
+        <v>84.72563230490742</v>
       </c>
       <c r="J46" t="n">
-        <v>168.5454498798343</v>
+        <v>168.5454498798344</v>
       </c>
       <c r="K46" t="n">
         <v>403.0147496445389</v>
       </c>
       <c r="L46" t="n">
-        <v>750.1009110418629</v>
+        <v>750.100911041863</v>
       </c>
       <c r="M46" t="n">
         <v>1128.362894628577</v>
@@ -7830,19 +7830,19 @@
         <v>2267.316748074491</v>
       </c>
       <c r="R46" t="n">
-        <v>2247.319997520791</v>
+        <v>2247.319997520792</v>
       </c>
       <c r="S46" t="n">
-        <v>2119.915893216813</v>
+        <v>2119.915893216814</v>
       </c>
       <c r="T46" t="n">
-        <v>1936.350798259683</v>
+        <v>1936.350798259684</v>
       </c>
       <c r="U46" t="n">
         <v>1708.573015560315</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.695179056348</v>
+        <v>1489.695179056349</v>
       </c>
       <c r="W46" t="n">
         <v>1265.633423121734</v>
@@ -7851,7 +7851,7 @@
         <v>1082.297469537929</v>
       </c>
       <c r="Y46" t="n">
-        <v>912.5696794832054</v>
+        <v>912.5696794832056</v>
       </c>
     </row>
   </sheetData>
@@ -7987,22 +7987,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>103.4870377853177</v>
+        <v>103.0750453276097</v>
       </c>
       <c r="N2" t="n">
-        <v>103.1091040848916</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>103.3865889540554</v>
       </c>
       <c r="P2" t="n">
-        <v>103.4341841514484</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>100.2306177274243</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>97.50895614299576</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>67.3491046089817</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>63.39020672202223</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>67.94829232827223</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.88943183311096</v>
+        <v>66.47743937540299</v>
       </c>
       <c r="R3" t="n">
         <v>69.19701243367766</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>61.62995901122766</v>
+        <v>61.2179665535197</v>
       </c>
       <c r="K4" t="n">
         <v>62.44718288733907</v>
@@ -8145,7 +8145,7 @@
         <v>64.82510722217376</v>
       </c>
       <c r="M4" t="n">
-        <v>66.04976336934432</v>
+        <v>66.46175582705229</v>
       </c>
       <c r="N4" t="n">
         <v>51.71264550841944</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>83.52040466158019</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>102.6971116271836</v>
+        <v>103.1091040848916</v>
       </c>
       <c r="O5" t="n">
-        <v>103.3865889540554</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8461766091564</v>
+        <v>103.4341841514484</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2306177274243</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>97.50895614299576</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>61.2179665535197</v>
       </c>
       <c r="K7" t="n">
-        <v>62.44718288733907</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
         <v>64.82510722217376</v>
       </c>
       <c r="M7" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>51.71264550841944</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O7" t="n">
-        <v>56.07489807299633</v>
+        <v>66.27171140126856</v>
       </c>
       <c r="P7" t="n">
         <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.14434653048984</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>105.2768972788301</v>
       </c>
       <c r="L8" t="n">
-        <v>111.6259056684578</v>
+        <v>112.3055059886941</v>
       </c>
       <c r="M8" t="n">
-        <v>110.1103323828948</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>109.7323986824686</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>110.0098835516324</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>110.4694712067335</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>104.1322507405728</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>68.1893467258493</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>74.38439166426673</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>70.0135013195993</v>
       </c>
       <c r="O9" t="n">
-        <v>74.57158692584929</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>70.40014260841672</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>72.83312611045169</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>75.82030703125471</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>69.07047748491613</v>
       </c>
       <c r="L10" t="n">
-        <v>70.76880149951448</v>
+        <v>56.54400412051395</v>
       </c>
       <c r="M10" t="n">
         <v>73.08505042462934</v>
       </c>
       <c r="N10" t="n">
-        <v>68.53275343426874</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>55.77984163990478</v>
+        <v>72.59994956575409</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.17963358577487</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>172.7968993563642</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8698,16 +8698,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>4.79108185425963</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>320.3614138407305</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>21.17258935160889</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>414.6513714723707</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>84.54960944168775</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>2.765010946439872</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.26982603535426</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8935,10 +8935,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>598.4995243307255</v>
+        <v>4.79108185425963</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>696.421502992669</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.60676554757722</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>248.7506726833006</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>234.4945432311464</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9029,7 +9029,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>25.02486469199444</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9175,7 +9175,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.701196452193</v>
+        <v>202.5942636894762</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9184,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>364.3628531472131</v>
+        <v>35.60676554757722</v>
       </c>
       <c r="R17" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>622.2955828561695</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>454.7326501581058</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>22.26982603535426</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9412,13 +9412,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>2.981139503515408</v>
+        <v>558.8137816491085</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>8.270339644689926</v>
       </c>
       <c r="P20" t="n">
-        <v>448.932106316139</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>191.1460569131131</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>234.4945432311464</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.26982603535426</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>245.4230104673749</v>
+        <v>285.9481490522965</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9646,7 +9646,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>4.79108185425963</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
         <v>853.701196452193</v>
@@ -9655,13 +9655,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>21.17258935160889</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>35.60676554757722</v>
       </c>
       <c r="R23" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>501.3337772629231</v>
+        <v>234.4945432311464</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>436.2459763027859</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
         <v>815.2746908024792</v>
@@ -9895,10 +9895,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>290.5791038430159</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>55.65234048105229</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>12.2804299001662</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>234.4945432311466</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>379.0282046026986</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.765010946439872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.26982603535426</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>206.2168348907707</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
@@ -10120,7 +10120,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>877.4504173780091</v>
+        <v>680.9645483418824</v>
       </c>
       <c r="N29" t="n">
         <v>853.701196452193</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>234.4945432311465</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>234.4945432311466</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>179.991264362991</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10360,7 +10360,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>630.9897568882861</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>12.2804299001662</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>352.4081743240823</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.765010946439872</v>
+        <v>424.413265646075</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.26982603535426</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024792</v>
+        <v>730.621108453968</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>4.79108185425963</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10603,10 +10603,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>349.2001853034488</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.60676554757722</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>55.65234048105229</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>12.2804299001662</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>234.4945432311467</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>641.8863616265936</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.765010946439872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10831,19 +10831,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>4.79108185425963</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>769.0476141036816</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>349.2001853034498</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.60676554757722</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>55.65234048105229</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>179.5126738166008</v>
+        <v>12.2804299001662</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>402.3709415722049</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.765010946439872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>22.26982603535426</v>
       </c>
       <c r="R39" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>454.4898773938636</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2001853034498</v>
+        <v>21.17258935160889</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.60676554757722</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>55.65234048105229</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,16 +11141,16 @@
         <v>25.89159405751909</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>12.2804299001662</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>784.128776294311</v>
+        <v>688.4874887314114</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>2.765010946439872</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.26982603535426</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>42.25717236688074</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.54666421146563</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>526.1389844153302</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11308,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>2.981139503515408</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>349.2001853034498</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.60676554757722</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>55.65234048105229</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>25.89159405751909</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>12.2804299001662</v>
+        <v>414.6513714723711</v>
       </c>
       <c r="L45" t="n">
-        <v>334.0893114068746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.765010946439872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>22.26982603535426</v>
       </c>
       <c r="R45" t="n">
-        <v>42.25717236688074</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="12">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.303845920119784e-12</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24618,7 +24618,7 @@
         <v>165.3518071700915</v>
       </c>
       <c r="H28" t="n">
-        <v>146.1013239720448</v>
+        <v>48.35870502477611</v>
       </c>
       <c r="I28" t="n">
         <v>108.383743446748</v>
@@ -24651,7 +24651,7 @@
         <v>74.25461251910906</v>
       </c>
       <c r="S28" t="n">
-        <v>154.658075187848</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>114.0381410709824</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.1013239720448</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>108.383743446748</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>139.4219896260552</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.1091305518189</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.6688599356156</v>
       </c>
       <c r="D34" t="n">
         <v>156.186119452034</v>
       </c>
       <c r="E34" t="n">
-        <v>157.5881282020787</v>
+        <v>157.5881282020786</v>
       </c>
       <c r="F34" t="n">
-        <v>161.2712358522296</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>95.83726029879395</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.3877451937597</v>
+        <v>49.13326151796051</v>
       </c>
       <c r="I34" t="n">
-        <v>106.6701646684629</v>
+        <v>106.6701646684628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.54103374082402</v>
+        <v>72.54103374082395</v>
       </c>
       <c r="S34" t="n">
-        <v>178.8743139535993</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>278.2442555650363</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>269.4333088315881</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647235.1394424061</v>
+        <v>647235.139442406</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645483.7448062403</v>
+        <v>645483.7448062404</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647235.1394424061</v>
+        <v>647235.1394424062</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647235.1394424061</v>
+        <v>647235.1394424062</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647235.1394424061</v>
+        <v>647235.1394424062</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647235.1394424061</v>
+        <v>647235.1394424062</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651002.3578798609</v>
+        <v>651002.3578798608</v>
       </c>
       <c r="C2" t="n">
         <v>651002.3578798609</v>
@@ -26322,40 +26322,40 @@
         <v>651529.572129828</v>
       </c>
       <c r="E2" t="n">
-        <v>651529.5721298258</v>
+        <v>651529.5721298279</v>
       </c>
       <c r="F2" t="n">
-        <v>651529.5721298263</v>
+        <v>651529.5721298283</v>
       </c>
       <c r="G2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298279</v>
       </c>
       <c r="H2" t="n">
-        <v>651529.572129828</v>
+        <v>651529.5721298262</v>
       </c>
       <c r="I2" t="n">
         <v>651529.5721298263</v>
       </c>
       <c r="J2" t="n">
-        <v>620369.9348294053</v>
+        <v>620369.9348294055</v>
       </c>
       <c r="K2" t="n">
-        <v>620369.9348294052</v>
+        <v>620369.934829405</v>
       </c>
       <c r="L2" t="n">
-        <v>621350.4089639015</v>
+        <v>621350.4089639013</v>
       </c>
       <c r="M2" t="n">
-        <v>651529.572129828</v>
+        <v>651529.5721298261</v>
       </c>
       <c r="N2" t="n">
-        <v>651529.5721298268</v>
+        <v>651529.5721298265</v>
       </c>
       <c r="O2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298285</v>
       </c>
       <c r="P2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298272</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3417.186673010583</v>
+        <v>3417.186673010578</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>57741.23563753352</v>
+        <v>57741.23563753358</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1370.863022628037</v>
+        <v>1370.863022628085</v>
       </c>
       <c r="M3" t="n">
         <v>251124.0828941287</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>346357.2404448037</v>
       </c>
       <c r="D4" t="n">
-        <v>345766.3646797419</v>
+        <v>345766.3646797418</v>
       </c>
       <c r="E4" t="n">
         <v>214314.7586607557</v>
@@ -26447,7 +26447,7 @@
         <v>180943.5795190051</v>
       </c>
       <c r="L4" t="n">
-        <v>181993.6423830448</v>
+        <v>181993.6423830449</v>
       </c>
       <c r="M4" t="n">
         <v>214314.7586607558</v>
@@ -26478,19 +26478,19 @@
         <v>34650.26256189164</v>
       </c>
       <c r="E5" t="n">
-        <v>71702.79741312748</v>
+        <v>71702.79741312747</v>
       </c>
       <c r="F5" t="n">
-        <v>71702.7974131275</v>
+        <v>71702.79741312747</v>
       </c>
       <c r="G5" t="n">
-        <v>71702.7974131275</v>
+        <v>71702.79741312747</v>
       </c>
       <c r="H5" t="n">
-        <v>71702.7974131275</v>
+        <v>71702.79741312747</v>
       </c>
       <c r="I5" t="n">
-        <v>71702.7974131275</v>
+        <v>71702.79741312747</v>
       </c>
       <c r="J5" t="n">
         <v>79922.34046456372</v>
@@ -26502,16 +26502,16 @@
         <v>79663.70300734269</v>
       </c>
       <c r="M5" t="n">
-        <v>71702.79741312748</v>
+        <v>71702.79741312751</v>
       </c>
       <c r="N5" t="n">
-        <v>71702.79741312748</v>
+        <v>71702.79741312751</v>
       </c>
       <c r="O5" t="n">
-        <v>71702.79741312748</v>
+        <v>71702.79741312751</v>
       </c>
       <c r="P5" t="n">
-        <v>71702.79741312748</v>
+        <v>71702.79741312751</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266980.3645116877</v>
+        <v>266979.0464760627</v>
       </c>
       <c r="C6" t="n">
-        <v>270397.5511846983</v>
+        <v>270396.2331490734</v>
       </c>
       <c r="D6" t="n">
-        <v>269055.5508873491</v>
+        <v>269055.5508873492</v>
       </c>
       <c r="E6" t="n">
-        <v>-89971.20229294962</v>
+        <v>-89971.20229294751</v>
       </c>
       <c r="F6" t="n">
+        <v>365512.0160559451</v>
+      </c>
+      <c r="G6" t="n">
+        <v>365512.0160559447</v>
+      </c>
+      <c r="H6" t="n">
         <v>365512.016055943</v>
       </c>
-      <c r="G6" t="n">
-        <v>365512.0160559448</v>
-      </c>
-      <c r="H6" t="n">
-        <v>365512.0160559447</v>
-      </c>
       <c r="I6" t="n">
-        <v>365512.016055943</v>
+        <v>365512.0160559431</v>
       </c>
       <c r="J6" t="n">
-        <v>301762.7792083031</v>
+        <v>301684.8801150522</v>
       </c>
       <c r="K6" t="n">
-        <v>359504.0148458363</v>
+        <v>359426.1157525852</v>
       </c>
       <c r="L6" t="n">
-        <v>358322.2005508859</v>
+        <v>358246.7526429708</v>
       </c>
       <c r="M6" t="n">
-        <v>114387.933161816</v>
+        <v>114387.9331618141</v>
       </c>
       <c r="N6" t="n">
-        <v>365512.0160559437</v>
+        <v>365512.0160559431</v>
       </c>
       <c r="O6" t="n">
-        <v>365512.0160559449</v>
+        <v>365512.0160559452</v>
       </c>
       <c r="P6" t="n">
-        <v>365512.0160559449</v>
+        <v>365512.0160559439</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="M2" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="N2" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="O2" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="P2" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
     </row>
     <row r="3">
@@ -26822,16 +26822,16 @@
         <v>1262.936555220825</v>
       </c>
       <c r="M4" t="n">
-        <v>1059.070403811342</v>
+        <v>1059.070403811343</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.070403811342</v>
+        <v>1059.070403811343</v>
       </c>
       <c r="O4" t="n">
-        <v>1059.070403811342</v>
+        <v>1059.070403811343</v>
       </c>
       <c r="P4" t="n">
-        <v>1059.070403811342</v>
+        <v>1059.070403811343</v>
       </c>
     </row>
   </sheetData>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="M2" t="n">
-        <v>52.74425069266157</v>
+        <v>52.7442506926612</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>220.6862593353317</v>
+        <v>220.6862593353319</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>838.3841444760096</v>
+        <v>838.3841444760105</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.9186491296886</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>122.4583072102715</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>96.71329645856201</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -27517,16 +27517,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>202.5930585573543</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>164.3659087142239</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>147.611126711536</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>159.1856253856284</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>147.7028849020468</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27551,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>156.5965339841698</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27590,22 +27590,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>226.9564383047927</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>269.7733526510648</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>266.0821545179421</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>226.9790703393713</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.2915282968507</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>398.0244380138589</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>83.51268306995641</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27697,13 +27697,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>122.4583072102715</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>105.5313728745292</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3065346680531</v>
+        <v>109.091074519323</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -27712,10 +27712,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>59.84292750636887</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>10.34429213768998</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>96.71329645856201</v>
+        <v>97.92875660729207</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>149.1048936520915</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>152.7880013022424</v>
+        <v>154.0034614509725</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>155.3810738354398</v>
       </c>
       <c r="H7" t="n">
-        <v>139.1300274630557</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>104.9857721084449</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>74.2231778130821</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>174.3310371106166</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>68.66813713024827</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>380.1071983955415</v>
       </c>
     </row>
     <row r="9">
@@ -27937,19 +27937,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>98.90807827695218</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>102.467779921746</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>89.10010363295538</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>53.21963290879181</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>3.720997540112926</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>92.0949587257462</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -27994,7 +27994,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>196.2856855199465</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.0075582690159</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>152.5623307880514</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>141.0795903044698</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>148.1696635694266</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>148.7577792378627</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>131.2912727167486</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>98.36247751086781</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>67.59988321550505</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28520,7 +28520,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="N16" t="n">
-        <v>54.4578294709464</v>
+        <v>54.45782947094756</v>
       </c>
       <c r="O16" t="n">
         <v>54.4578294709464</v>
@@ -28745,7 +28745,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="J19" t="n">
-        <v>54.4578294709464</v>
+        <v>54.4578294709474</v>
       </c>
       <c r="K19" t="n">
         <v>54.4578294709464</v>
@@ -28760,7 +28760,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="O19" t="n">
-        <v>54.4578294709479</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="P19" t="n">
         <v>54.4578294709464</v>
@@ -28988,7 +28988,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="L22" t="n">
-        <v>54.4578294709464</v>
+        <v>54.45782947094744</v>
       </c>
       <c r="M22" t="n">
         <v>54.4578294709464</v>
@@ -29000,7 +29000,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="P22" t="n">
-        <v>54.45782947094801</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Q22" t="n">
         <v>54.4578294709464</v>
@@ -29040,7 +29040,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="C23" t="n">
-        <v>54.4578294709464</v>
+        <v>54.4578294709471</v>
       </c>
       <c r="D23" t="n">
         <v>54.4578294709464</v>
@@ -29237,7 +29237,7 @@
         <v>54.4578294709464</v>
       </c>
       <c r="P25" t="n">
-        <v>54.45782947094801</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Q25" t="n">
         <v>54.4578294709464</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="C32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="D32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="E32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="F32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="G32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="H32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="I32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="T32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="U32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="V32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="W32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="X32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="C34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="D34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="E34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="F34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="G34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="H34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="I34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="J34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="K34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="L34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="M34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="N34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="O34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="P34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="R34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="S34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="T34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="U34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="V34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="W34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="X34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.713578778285046</v>
+        <v>1.713578778285106</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="C35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="D35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="E35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="F35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="G35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="H35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="I35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="T35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="U35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="V35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="W35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="X35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="Y35" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="C37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="D37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="E37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="F37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="G37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="H37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="I37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="J37" t="n">
-        <v>54.45782947094152</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="K37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="L37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="M37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.45782947094926</v>
       </c>
       <c r="N37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="O37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="P37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="R37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="S37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="T37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="U37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="V37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="W37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="X37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.45782947094661</v>
+        <v>54.4578294709463</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="C38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="D38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="E38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="F38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="G38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="H38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="I38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="T38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="U38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="V38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="W38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="X38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="Y38" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="C40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="D40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="E40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="F40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="G40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="H40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="I40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="J40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="K40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="L40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="M40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="N40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="O40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="P40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.45782947094679</v>
+        <v>54.45782947094816</v>
       </c>
       <c r="R40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="S40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="T40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="U40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="V40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="W40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="X40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.45782947094642</v>
+        <v>54.45782947094639</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="C41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="D41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="E41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="F41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="G41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="H41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="I41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="T41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="U41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="V41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="W41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="X41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Y41" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="C43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="D43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="E43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="F43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="G43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="H43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="I43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="J43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="K43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="L43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="M43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="N43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="O43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="P43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="R43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="S43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="T43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="U43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="V43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="W43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="X43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="C44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="D44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="E44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="F44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="G44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="H44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="I44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="T44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="U44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="V44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="W44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="X44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="C46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="D46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="E46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="F46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="G46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="H46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="I46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="J46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="K46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="L46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="M46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="N46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="O46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="P46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="R46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="S46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="T46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="U46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="V46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="W46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="X46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.45782947094642</v>
+        <v>54.4578294709464</v>
       </c>
     </row>
   </sheetData>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>10.19681332827224</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="N2" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="P2" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.19681332827224</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="R3" t="n">
         <v>10.19681332827224</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.19681332827224</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="K4" t="n">
         <v>10.19681332827224</v>
@@ -34865,7 +34865,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="M4" t="n">
-        <v>9.784820870564275</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>9.784820870564277</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.784820870564275</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="K7" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>16.14050760561297</v>
       </c>
       <c r="L8" t="n">
-        <v>16.14050760561297</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>16.14050760561297</v>
+      </c>
+      <c r="R9" t="n">
         <v>16.8201079258493</v>
-      </c>
-      <c r="P9" t="n">
-        <v>16.14050760561297</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="L10" t="n">
-        <v>16.14050760561297</v>
+        <v>1.915710226612444</v>
       </c>
       <c r="M10" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>142.2502351448986</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K11" t="n">
         <v>607.7069806469192</v>
@@ -35418,16 +35418,16 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>872.6593355237494</v>
       </c>
       <c r="N11" t="n">
         <v>850.7200569486777</v>
       </c>
       <c r="O11" t="n">
-        <v>735.0516141801891</v>
+        <v>312.0910741960406</v>
       </c>
       <c r="P11" t="n">
-        <v>606.9784889991253</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>378.8320962205567</v>
@@ -35491,25 +35491,25 @@
         <v>220.2381069269589</v>
       </c>
       <c r="K12" t="n">
-        <v>402.3709415722045</v>
+        <v>503.9557127483873</v>
       </c>
       <c r="L12" t="n">
-        <v>726.3179310049636</v>
+        <v>2.437576972611232</v>
       </c>
       <c r="M12" t="n">
-        <v>10.76325615170477</v>
+        <v>95.31286559339252</v>
       </c>
       <c r="N12" t="n">
         <v>16.94257316232335</v>
       </c>
       <c r="O12" t="n">
-        <v>6.40922822554024</v>
+        <v>775.2284754537163</v>
       </c>
       <c r="P12" t="n">
-        <v>618.8743134387175</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>387.8010396250232</v>
       </c>
       <c r="R12" t="n">
         <v>46.60112710481749</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K14" t="n">
         <v>607.7069806469192</v>
@@ -35655,10 +35655,10 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M14" t="n">
-        <v>593.708442476466</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>850.7200569486777</v>
+        <v>693.4403634891536</v>
       </c>
       <c r="O14" t="n">
         <v>735.0516141801891</v>
@@ -35667,10 +35667,10 @@
         <v>606.9784889991253</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>378.8320962205567</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K15" t="n">
-        <v>236.4702427831344</v>
+        <v>503.9557127483873</v>
       </c>
       <c r="L15" t="n">
-        <v>2.437576972611232</v>
+        <v>236.9321202037576</v>
       </c>
       <c r="M15" t="n">
         <v>10.76325615170477</v>
@@ -35740,7 +35740,7 @@
         <v>16.94257316232335</v>
       </c>
       <c r="O15" t="n">
-        <v>775.2284754537163</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P15" t="n">
         <v>618.8743134387175</v>
@@ -35749,7 +35749,7 @@
         <v>387.8010396250232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.66648239891612</v>
+        <v>84.6664823989161</v>
       </c>
       <c r="K16" t="n">
         <v>236.8376765300046</v>
@@ -35816,7 +35816,7 @@
         <v>382.0828117037519</v>
       </c>
       <c r="N16" t="n">
-        <v>372.7297720848604</v>
+        <v>372.7297720848615</v>
       </c>
       <c r="O16" t="n">
         <v>348.5956436060753</v>
@@ -35825,7 +35825,7 @@
         <v>289.5541470121144</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.5788751211044</v>
+        <v>139.5788751211045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>607.7069806469192</v>
       </c>
       <c r="L17" t="n">
         <v>799.3253086076752</v>
@@ -35895,7 +35895,7 @@
         <v>872.6593355237494</v>
       </c>
       <c r="N17" t="n">
-        <v>850.7200569486777</v>
+        <v>199.6131241859608</v>
       </c>
       <c r="O17" t="n">
         <v>735.0516141801891</v>
@@ -35904,10 +35904,10 @@
         <v>606.9784889991253</v>
       </c>
       <c r="Q17" t="n">
-        <v>328.7560875996359</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K18" t="n">
         <v>503.9557127483873</v>
       </c>
       <c r="L18" t="n">
-        <v>2.437576972611232</v>
+        <v>624.7331598287808</v>
       </c>
       <c r="M18" t="n">
         <v>10.76325615170477</v>
@@ -35977,13 +35977,13 @@
         <v>16.94257316232335</v>
       </c>
       <c r="O18" t="n">
-        <v>461.141878383646</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P18" t="n">
         <v>618.8743134387175</v>
       </c>
       <c r="Q18" t="n">
-        <v>387.8010396250232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>46.60112710481749</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>84.6664823989161</v>
+        <v>84.66648239891711</v>
       </c>
       <c r="K19" t="n">
         <v>236.8376765300046</v>
@@ -36056,7 +36056,7 @@
         <v>372.7297720848604</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5956436060768</v>
+        <v>348.5956436060753</v>
       </c>
       <c r="P19" t="n">
         <v>289.5541470121144</v>
@@ -36132,13 +36132,13 @@
         <v>872.6593355237494</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>555.832642145593</v>
       </c>
       <c r="O20" t="n">
-        <v>735.0516141801891</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>427.7595169645301</v>
+        <v>606.9784889991253</v>
       </c>
       <c r="Q20" t="n">
         <v>378.8320962205567</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>165.254462855594</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K21" t="n">
         <v>503.9557127483873</v>
       </c>
       <c r="L21" t="n">
-        <v>726.3179310049636</v>
+        <v>236.9321202037576</v>
       </c>
       <c r="M21" t="n">
         <v>10.76325615170477</v>
@@ -36220,10 +36220,10 @@
         <v>618.8743134387175</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>387.8010396250232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>236.8376765300046</v>
       </c>
       <c r="L22" t="n">
-        <v>350.5920822195193</v>
+        <v>350.5920822195203</v>
       </c>
       <c r="M22" t="n">
         <v>382.0828117037519</v>
@@ -36296,7 +36296,7 @@
         <v>348.5956436060753</v>
       </c>
       <c r="P22" t="n">
-        <v>289.5541470121159</v>
+        <v>289.5541470121144</v>
       </c>
       <c r="Q22" t="n">
         <v>139.5788751211045</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>214.8763462559093</v>
+        <v>255.4014848408308</v>
       </c>
       <c r="K23" t="n">
         <v>607.7069806469192</v>
@@ -36366,7 +36366,7 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>872.6593355237494</v>
       </c>
       <c r="N23" t="n">
         <v>850.7200569486777</v>
@@ -36375,13 +36375,13 @@
         <v>735.0516141801891</v>
       </c>
       <c r="P23" t="n">
-        <v>606.9784889991253</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.8320962205567</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K24" t="n">
         <v>503.9557127483873</v>
       </c>
       <c r="L24" t="n">
-        <v>503.7713542355344</v>
+        <v>236.9321202037576</v>
       </c>
       <c r="M24" t="n">
         <v>10.76325615170477</v>
@@ -36460,7 +36460,7 @@
         <v>387.8010396250232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>348.5956436060753</v>
       </c>
       <c r="P25" t="n">
-        <v>289.5541470121159</v>
+        <v>289.5541470121144</v>
       </c>
       <c r="Q25" t="n">
         <v>139.5788751211045</v>
@@ -36597,7 +36597,7 @@
         <v>299.5299286044224</v>
       </c>
       <c r="K26" t="n">
-        <v>411.2211116107915</v>
+        <v>607.7069806469192</v>
       </c>
       <c r="L26" t="n">
         <v>799.3253086076752</v>
@@ -36615,10 +36615,10 @@
         <v>606.9784889991253</v>
       </c>
       <c r="Q26" t="n">
-        <v>378.8320962205567</v>
+        <v>254.9723382954387</v>
       </c>
       <c r="R26" t="n">
-        <v>72.62611111100942</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>503.9557127483873</v>
       </c>
       <c r="L27" t="n">
-        <v>726.3179310049636</v>
+        <v>236.9321202037578</v>
       </c>
       <c r="M27" t="n">
-        <v>919.8195405917047</v>
+        <v>10.76325615170477</v>
       </c>
       <c r="N27" t="n">
         <v>16.94257316232335</v>
       </c>
       <c r="O27" t="n">
-        <v>385.4374328282389</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>618.8743134387175</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>387.8010396250232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.6701706793051</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K29" t="n">
         <v>607.7069806469192</v>
@@ -36840,7 +36840,7 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M29" t="n">
-        <v>872.6593355237494</v>
+        <v>676.1734664876228</v>
       </c>
       <c r="N29" t="n">
         <v>850.7200569486777</v>
@@ -36855,7 +36855,7 @@
         <v>378.8320962205567</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>503.9557127483873</v>
       </c>
       <c r="L30" t="n">
-        <v>2.437576972611232</v>
+        <v>236.9321202037577</v>
       </c>
       <c r="M30" t="n">
         <v>10.76325615170477</v>
       </c>
       <c r="N30" t="n">
-        <v>251.43711639347</v>
+        <v>16.94257316232335</v>
       </c>
       <c r="O30" t="n">
         <v>6.40922822554024</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>149.4446001515254</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K32" t="n">
         <v>607.7069806469192</v>
@@ -37080,7 +37080,7 @@
         <v>872.6593355237494</v>
       </c>
       <c r="N32" t="n">
-        <v>850.7200569486777</v>
+        <v>628.0086173847707</v>
       </c>
       <c r="O32" t="n">
         <v>735.0516141801891</v>
@@ -37092,7 +37092,7 @@
         <v>378.8320962205567</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>726.3179310049636</v>
+        <v>2.437576972611232</v>
       </c>
       <c r="M33" t="n">
         <v>10.76325615170477</v>
@@ -37162,16 +37162,16 @@
         <v>952.6188878809398</v>
       </c>
       <c r="O33" t="n">
-        <v>358.8174025496225</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>421.6482546996352</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>387.8010396250232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.92223170625475</v>
+        <v>31.92223170625481</v>
       </c>
       <c r="K34" t="n">
-        <v>184.0934258373432</v>
+        <v>184.0934258373433</v>
       </c>
       <c r="L34" t="n">
-        <v>297.8478315268579</v>
+        <v>297.847831526858</v>
       </c>
       <c r="M34" t="n">
-        <v>329.3385610110905</v>
+        <v>329.3385610110906</v>
       </c>
       <c r="N34" t="n">
-        <v>319.985521392199</v>
+        <v>319.9855213921991</v>
       </c>
       <c r="O34" t="n">
         <v>295.851392913414</v>
@@ -37247,7 +37247,7 @@
         <v>236.809896319453</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.83462442844308</v>
+        <v>86.83462442844316</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K35" t="n">
         <v>607.7069806469192</v>
       </c>
       <c r="L35" t="n">
-        <v>799.3253086076752</v>
+        <v>714.671726259164</v>
       </c>
       <c r="M35" t="n">
-        <v>872.6593355237494</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>850.7200569486777</v>
@@ -37323,10 +37323,10 @@
         <v>735.0516141801891</v>
       </c>
       <c r="P35" t="n">
-        <v>328.0275959518399</v>
+        <v>606.9784889991253</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>378.8320962205567</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>503.9557127483873</v>
       </c>
       <c r="L36" t="n">
-        <v>2.437576972611232</v>
+        <v>236.9321202037579</v>
       </c>
       <c r="M36" t="n">
         <v>10.76325615170477</v>
       </c>
       <c r="N36" t="n">
-        <v>952.6188878809398</v>
+        <v>16.94257316232335</v>
       </c>
       <c r="O36" t="n">
-        <v>648.2955898521338</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>618.8743134387175</v>
       </c>
       <c r="Q36" t="n">
         <v>387.8010396250232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>84.66648239891123</v>
+        <v>84.666482398916</v>
       </c>
       <c r="K37" t="n">
-        <v>236.8376765300048</v>
+        <v>236.8376765300045</v>
       </c>
       <c r="L37" t="n">
-        <v>350.5920822195195</v>
+        <v>350.5920822195192</v>
       </c>
       <c r="M37" t="n">
-        <v>382.0828117037521</v>
+        <v>382.0828117037547</v>
       </c>
       <c r="N37" t="n">
-        <v>372.7297720848605</v>
+        <v>372.7297720848603</v>
       </c>
       <c r="O37" t="n">
-        <v>348.5956436060755</v>
+        <v>348.5956436060752</v>
       </c>
       <c r="P37" t="n">
-        <v>289.5541470121146</v>
+        <v>289.5541470121142</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.5788751211047</v>
+        <v>139.5788751211043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K38" t="n">
         <v>607.7069806469192</v>
@@ -37551,19 +37551,19 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M38" t="n">
-        <v>872.6593355237494</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>850.7200569486777</v>
+        <v>766.0664746001662</v>
       </c>
       <c r="O38" t="n">
         <v>735.0516141801891</v>
       </c>
       <c r="P38" t="n">
-        <v>328.0275959518409</v>
+        <v>606.9784889991253</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>378.8320962205567</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K39" t="n">
-        <v>167.2322439164346</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.437576972611232</v>
+        <v>726.3179310049636</v>
       </c>
       <c r="M39" t="n">
-        <v>919.8195405917047</v>
+        <v>10.76325615170477</v>
       </c>
       <c r="N39" t="n">
-        <v>952.6188878809398</v>
+        <v>419.3135147345282</v>
       </c>
       <c r="O39" t="n">
         <v>6.40922822554024</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>618.8743134387175</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>84.66648239891613</v>
+        <v>84.6664823989161</v>
       </c>
       <c r="K40" t="n">
         <v>236.8376765300046</v>
       </c>
       <c r="L40" t="n">
-        <v>350.5920822195193</v>
+        <v>350.5920822195192</v>
       </c>
       <c r="M40" t="n">
         <v>382.0828117037519</v>
@@ -37721,7 +37721,7 @@
         <v>289.5541470121144</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.5788751211048</v>
+        <v>139.5788751211062</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K41" t="n">
         <v>607.7069806469192</v>
@@ -37788,7 +37788,7 @@
         <v>799.3253086076752</v>
       </c>
       <c r="M41" t="n">
-        <v>872.6593355237494</v>
+        <v>449.698795539604</v>
       </c>
       <c r="N41" t="n">
         <v>850.7200569486777</v>
@@ -37797,13 +37797,13 @@
         <v>735.0516141801891</v>
       </c>
       <c r="P41" t="n">
-        <v>328.0275959518409</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>378.8320962205567</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>72.62611111100942</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>503.9557127483873</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>726.3179310049636</v>
+        <v>2.437576972611232</v>
       </c>
       <c r="M42" t="n">
-        <v>794.8920324460158</v>
+        <v>699.2507448831162</v>
       </c>
       <c r="N42" t="n">
-        <v>16.94257316232335</v>
+        <v>952.6188878809398</v>
       </c>
       <c r="O42" t="n">
         <v>6.40922822554024</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>387.8010396250232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>84.66648239891613</v>
+        <v>84.66648239891612</v>
       </c>
       <c r="K43" t="n">
         <v>236.8376765300046</v>
@@ -37958,7 +37958,7 @@
         <v>289.5541470121144</v>
       </c>
       <c r="Q43" t="n">
-        <v>139.5788751211045</v>
+        <v>139.5788751211044</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>299.5299286044224</v>
       </c>
       <c r="K44" t="n">
-        <v>607.7069806469192</v>
+        <v>501.1141197233358</v>
       </c>
       <c r="L44" t="n">
         <v>799.3253086076752</v>
@@ -38028,16 +38028,16 @@
         <v>872.6593355237494</v>
       </c>
       <c r="N44" t="n">
-        <v>850.7200569486777</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>735.0516141801891</v>
       </c>
       <c r="P44" t="n">
-        <v>328.0275959518409</v>
+        <v>606.9784889991253</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>378.8320962205567</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>220.2381069269589</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>402.3709415722049</v>
       </c>
       <c r="L45" t="n">
-        <v>336.5268883794859</v>
+        <v>726.3179310049636</v>
       </c>
       <c r="M45" t="n">
-        <v>919.8195405917047</v>
+        <v>10.76325615170477</v>
       </c>
       <c r="N45" t="n">
         <v>16.94257316232335</v>
       </c>
       <c r="O45" t="n">
-        <v>775.2284754537163</v>
+        <v>6.40922822554024</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>618.8743134387175</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>46.60112710481749</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>84.66648239891613</v>
+        <v>84.6664823989161</v>
       </c>
       <c r="K46" t="n">
         <v>236.8376765300046</v>
